--- a/inasistencias-6A-sistDeCtrolVirtual/Alumnos-6A-SistDeCtrolVirtual.xlsx
+++ b/inasistencias-6A-sistDeCtrolVirtual/Alumnos-6A-SistDeCtrolVirtual.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="asistencia" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="507">
   <si>
     <t xml:space="preserve">nro</t>
   </si>
@@ -44,6 +44,9 @@
     <t xml:space="preserve">Dirección de correo</t>
   </si>
   <si>
+    <t xml:space="preserve">obs</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lautaro Agustin</t>
   </si>
   <si>
@@ -120,6 +123,9 @@
   </si>
   <si>
     <t xml:space="preserve">martin.ezequiel.celestino@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
   </si>
   <si>
     <t xml:space="preserve">Benjamin Matias</t>
@@ -1551,10 +1557,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="166" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="hh:mm:ss"/>
+    <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -1562,6 +1569,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1633,7 +1641,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1646,11 +1654,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1671,6 +1687,7 @@
     <dxf>
       <font>
         <name val="Calibri"/>
+        <charset val="1"/>
         <family val="0"/>
         <b val="1"/>
         <color rgb="FFFFFFFF"/>
@@ -1751,16 +1768,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="V2:V27 C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.52734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.98"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="21.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="33.12"/>
   </cols>
@@ -1781,22 +1798,31 @@
       <c r="E1" s="2" t="n">
         <v>45790</v>
       </c>
+      <c r="F1" s="2" t="n">
+        <v>45797</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1804,16 +1830,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1821,16 +1850,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1838,16 +1870,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1855,16 +1890,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1872,16 +1910,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1889,16 +1930,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1906,16 +1950,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>0.555555555555556</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1923,16 +1973,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1940,16 +1993,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1957,16 +2013,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1974,16 +2033,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>0.555555555555556</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1991,16 +2056,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2008,16 +2076,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2025,16 +2096,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2042,16 +2116,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2059,16 +2136,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2076,16 +2156,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2093,16 +2176,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2110,16 +2196,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2127,16 +2216,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2144,16 +2236,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2161,16 +2256,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2178,16 +2276,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2195,16 +2296,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2212,13 +2316,29 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E28" s="0" t="n">
+        <f aca="false">COUNTIF(E2:E27,"P")</f>
+        <v>21</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <f aca="false">COUNTIF(F2:F27,"P")</f>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2237,17 +2357,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I35" activeCellId="1" sqref="V2:V27 I35"/>
+      <selection pane="topLeft" activeCell="I35" activeCellId="0" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.12"/>
   </cols>
@@ -2257,22 +2377,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>95</v>
-      </c>
       <c r="H1" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2280,16 +2400,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>7</v>
@@ -2303,7 +2423,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
@@ -2317,16 +2437,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>9</v>
@@ -2340,7 +2460,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>1</v>
@@ -2354,16 +2474,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>10</v>
@@ -2382,13 +2502,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>9</v>
@@ -2396,13 +2516,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>2</v>
@@ -2413,7 +2533,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>1</v>
@@ -2427,16 +2547,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>10</v>
@@ -2450,7 +2570,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
@@ -2464,16 +2584,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>10</v>
@@ -2487,7 +2607,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>1</v>
@@ -2501,16 +2621,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>10</v>
@@ -2524,16 +2644,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>10</v>
@@ -2552,13 +2672,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>5</v>
@@ -2569,16 +2689,16 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>8</v>
@@ -2597,13 +2717,13 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>7</v>
@@ -2611,13 +2731,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>4</v>
@@ -2625,13 +2745,13 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>4</v>
@@ -2642,16 +2762,16 @@
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>7</v>
@@ -2665,7 +2785,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>1</v>
@@ -2679,16 +2799,16 @@
         <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>10</v>
@@ -2702,16 +2822,16 @@
         <v>17</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>8</v>
@@ -2725,16 +2845,16 @@
         <v>18</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>10</v>
@@ -2748,16 +2868,16 @@
         <v>19</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>10</v>
@@ -2771,7 +2891,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>1</v>
@@ -2785,16 +2905,16 @@
         <v>21</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>8</v>
@@ -2808,16 +2928,16 @@
         <v>22</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>10</v>
@@ -2831,16 +2951,16 @@
         <v>23</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>10</v>
@@ -2854,16 +2974,16 @@
         <v>24</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>10</v>
@@ -2882,13 +3002,13 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>9</v>
@@ -2899,16 +3019,16 @@
         <v>25</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>10</v>
@@ -2927,13 +3047,13 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>3</v>
@@ -2944,7 +3064,7 @@
         <v>26</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>1</v>
@@ -2955,7 +3075,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H36" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I36" s="0" t="n">
         <f aca="false">COUNTIF(I2:I35,"&gt;0")</f>
@@ -2997,10 +3117,10 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="V2:V27 E2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.11"/>
@@ -3021,7 +3141,7 @@
         <v>45717</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3029,7 +3149,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" s="0" t="n">
         <f aca="false">C2+D2</f>
@@ -3041,7 +3161,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
@@ -3056,7 +3176,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
@@ -3071,7 +3191,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" s="0" t="n">
         <f aca="false">C5+D5</f>
@@ -3083,7 +3203,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" s="0" t="n">
         <f aca="false">C6+D6</f>
@@ -3095,7 +3215,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" s="0" t="n">
         <f aca="false">C7+D7</f>
@@ -3107,7 +3227,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" s="0" t="n">
         <f aca="false">C8+D8</f>
@@ -3119,7 +3239,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9" s="0" t="n">
         <f aca="false">C9+D9</f>
@@ -3131,7 +3251,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -3149,7 +3269,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E11" s="0" t="n">
         <f aca="false">C11+D11</f>
@@ -3161,7 +3281,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -3176,7 +3296,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>1</v>
@@ -3191,7 +3311,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>
@@ -3209,7 +3329,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>2</v>
@@ -3227,7 +3347,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
@@ -3245,7 +3365,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
@@ -3260,7 +3380,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1</v>
@@ -3275,7 +3395,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>1</v>
@@ -3290,7 +3410,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>1</v>
@@ -3305,7 +3425,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>2</v>
@@ -3320,7 +3440,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E22" s="0" t="n">
         <f aca="false">C22+D22</f>
@@ -3332,7 +3452,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1</v>
@@ -3350,7 +3470,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1</v>
@@ -3368,7 +3488,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>1</v>
@@ -3386,7 +3506,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E26" s="0" t="n">
         <f aca="false">C26+D26</f>
@@ -3398,7 +3518,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E27" s="0" t="n">
         <f aca="false">C27+D27</f>
@@ -3423,11 +3543,11 @@
   </sheetPr>
   <dimension ref="A1:V27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V2" activeCellId="0" sqref="V2:V27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V2" activeCellId="0" sqref="V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.98"/>
@@ -3443,64 +3563,64 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G1" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="0" t="s">
-        <v>85</v>
-      </c>
       <c r="I1" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3508,7 +3628,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>8</v>
@@ -3519,7 +3639,7 @@
       <c r="G2" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="4" t="n">
         <v>7</v>
       </c>
       <c r="J2" s="2" t="n">
@@ -3544,11 +3664,11 @@
         <f aca="false">Q2+S2/2</f>
         <v>7</v>
       </c>
-      <c r="U2" s="4" t="n">
+      <c r="U2" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(M2,O2,T2),0)</f>
         <v>8</v>
       </c>
-      <c r="V2" s="0" t="str">
+      <c r="V2" s="6" t="str">
         <f aca="false">IF(U2&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3558,7 +3678,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
@@ -3591,11 +3711,11 @@
         <f aca="false">Q3+S3/2</f>
         <v>1.5</v>
       </c>
-      <c r="U3" s="4" t="n">
+      <c r="U3" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(M3,O3,T3),0)</f>
         <v>1</v>
       </c>
-      <c r="V3" s="0" t="str">
+      <c r="V3" s="6" t="str">
         <f aca="false">IF(U3&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -3605,7 +3725,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>6</v>
@@ -3638,11 +3758,11 @@
         <f aca="false">Q4+S4/2</f>
         <v>9.5</v>
       </c>
-      <c r="U4" s="4" t="n">
+      <c r="U4" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(M4,O4,T4),0)</f>
         <v>9</v>
       </c>
-      <c r="V4" s="0" t="str">
+      <c r="V4" s="6" t="str">
         <f aca="false">IF(U4&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3652,7 +3772,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>6</v>
@@ -3685,11 +3805,11 @@
         <f aca="false">Q5+S5/2</f>
         <v>1</v>
       </c>
-      <c r="U5" s="4" t="n">
+      <c r="U5" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(M5,O5,T5),0)</f>
         <v>1</v>
       </c>
-      <c r="V5" s="0" t="str">
+      <c r="V5" s="6" t="str">
         <f aca="false">IF(U5&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -3699,7 +3819,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -3732,11 +3852,11 @@
         <f aca="false">Q6+S6/2</f>
         <v>9</v>
       </c>
-      <c r="U6" s="4" t="n">
+      <c r="U6" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(M6,O6,T6),0)</f>
         <v>10</v>
       </c>
-      <c r="V6" s="0" t="str">
+      <c r="V6" s="6" t="str">
         <f aca="false">IF(U6&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3746,7 +3866,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -3779,11 +3899,11 @@
         <f aca="false">Q7+S7/2</f>
         <v>1</v>
       </c>
-      <c r="U7" s="4" t="n">
+      <c r="U7" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(M7,O7,T7),0)</f>
         <v>1</v>
       </c>
-      <c r="V7" s="0" t="str">
+      <c r="V7" s="6" t="str">
         <f aca="false">IF(U7&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -3793,7 +3913,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>8</v>
@@ -3804,7 +3924,7 @@
       <c r="G8" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="I8" s="3" t="n">
+      <c r="I8" s="4" t="n">
         <v>7</v>
       </c>
       <c r="J8" s="2" t="n">
@@ -3829,11 +3949,11 @@
         <f aca="false">Q8+S8/2</f>
         <v>10</v>
       </c>
-      <c r="U8" s="4" t="n">
+      <c r="U8" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(M8,O8,T8),0)</f>
         <v>9</v>
       </c>
-      <c r="V8" s="0" t="str">
+      <c r="V8" s="6" t="str">
         <f aca="false">IF(U8&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3843,7 +3963,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>9</v>
@@ -3876,11 +3996,11 @@
         <f aca="false">Q9+S9/2</f>
         <v>1</v>
       </c>
-      <c r="U9" s="4" t="n">
+      <c r="U9" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(M9,O9,T9),0)</f>
         <v>1</v>
       </c>
-      <c r="V9" s="0" t="str">
+      <c r="V9" s="6" t="str">
         <f aca="false">IF(U9&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -3890,7 +4010,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>10</v>
@@ -3923,11 +4043,11 @@
         <f aca="false">Q10+S10/2</f>
         <v>12</v>
       </c>
-      <c r="U10" s="4" t="n">
+      <c r="U10" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(M10,O10,T10),0)</f>
         <v>10</v>
       </c>
-      <c r="V10" s="0" t="str">
+      <c r="V10" s="6" t="str">
         <f aca="false">IF(U10&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3937,48 +4057,48 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E11" s="5" t="n">
+      <c r="E11" s="7" t="n">
         <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>45783</v>
       </c>
-      <c r="G11" s="5" t="n">
+      <c r="G11" s="7" t="n">
         <v>6</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>45783</v>
       </c>
-      <c r="I11" s="3" t="n">
+      <c r="I11" s="4" t="n">
         <v>6</v>
       </c>
       <c r="J11" s="2" t="n">
         <v>45784</v>
       </c>
-      <c r="K11" s="3" t="n">
+      <c r="K11" s="4" t="n">
         <v>9</v>
       </c>
       <c r="L11" s="2" t="n">
         <v>45783</v>
       </c>
-      <c r="M11" s="3" t="n">
+      <c r="M11" s="4" t="n">
         <v>7</v>
       </c>
       <c r="N11" s="2" t="n">
         <v>45783</v>
       </c>
-      <c r="O11" s="3" t="n">
+      <c r="O11" s="4" t="n">
         <v>9</v>
       </c>
       <c r="P11" s="2" t="n">
         <v>45784</v>
       </c>
-      <c r="Q11" s="3" t="n">
+      <c r="Q11" s="4" t="n">
         <v>9</v>
       </c>
       <c r="R11" s="2" t="n">
@@ -3991,11 +4111,11 @@
         <f aca="false">Q11+S11/2</f>
         <v>9</v>
       </c>
-      <c r="U11" s="4" t="n">
+      <c r="U11" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(M11,O11,T11),0)</f>
         <v>8</v>
       </c>
-      <c r="V11" s="0" t="str">
+      <c r="V11" s="6" t="str">
         <f aca="false">IF(U11&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -4005,7 +4125,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -4038,11 +4158,11 @@
         <f aca="false">Q12+S12/2</f>
         <v>10.5</v>
       </c>
-      <c r="U12" s="4" t="n">
+      <c r="U12" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(M12,O12,T12),0)</f>
         <v>10</v>
       </c>
-      <c r="V12" s="0" t="str">
+      <c r="V12" s="6" t="str">
         <f aca="false">IF(U12&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -4052,27 +4172,27 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="C13" s="7" t="n">
         <v>8</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>45780</v>
       </c>
-      <c r="E13" s="5" t="n">
+      <c r="E13" s="7" t="n">
         <v>8</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>45780</v>
       </c>
-      <c r="G13" s="5" t="n">
+      <c r="G13" s="7" t="n">
         <v>9</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>45780</v>
       </c>
-      <c r="I13" s="5" t="n">
+      <c r="I13" s="7" t="n">
         <v>5</v>
       </c>
       <c r="J13" s="2" t="n">
@@ -4097,11 +4217,11 @@
         <f aca="false">Q13+S13/2</f>
         <v>8.5</v>
       </c>
-      <c r="U13" s="4" t="n">
+      <c r="U13" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(M13,O13,T13),0)</f>
         <v>9</v>
       </c>
-      <c r="V13" s="0" t="str">
+      <c r="V13" s="6" t="str">
         <f aca="false">IF(U13&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -4111,7 +4231,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>10</v>
@@ -4144,11 +4264,11 @@
         <f aca="false">Q14+S14/2</f>
         <v>9</v>
       </c>
-      <c r="U14" s="4" t="n">
+      <c r="U14" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(M14,O14,T14),0)</f>
         <v>9</v>
       </c>
-      <c r="V14" s="0" t="str">
+      <c r="V14" s="6" t="str">
         <f aca="false">IF(U14&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -4158,7 +4278,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>8</v>
@@ -4191,11 +4311,11 @@
         <f aca="false">Q15+S15/2</f>
         <v>9</v>
       </c>
-      <c r="U15" s="4" t="n">
+      <c r="U15" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(M15,O15,T15),0)</f>
         <v>8</v>
       </c>
-      <c r="V15" s="0" t="str">
+      <c r="V15" s="6" t="str">
         <f aca="false">IF(U15&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -4205,7 +4325,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
@@ -4238,11 +4358,11 @@
         <f aca="false">Q16+S16/2</f>
         <v>1</v>
       </c>
-      <c r="U16" s="4" t="n">
+      <c r="U16" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(M16,O16,T16),0)</f>
         <v>1</v>
       </c>
-      <c r="V16" s="0" t="str">
+      <c r="V16" s="6" t="str">
         <f aca="false">IF(U16&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -4252,7 +4372,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>7</v>
@@ -4285,11 +4405,11 @@
         <f aca="false">Q17+S17/2</f>
         <v>10.5</v>
       </c>
-      <c r="U17" s="4" t="n">
+      <c r="U17" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(M17,O17,T17),0)</f>
         <v>10</v>
       </c>
-      <c r="V17" s="0" t="str">
+      <c r="V17" s="6" t="str">
         <f aca="false">IF(U17&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -4299,7 +4419,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>7</v>
@@ -4332,11 +4452,11 @@
         <f aca="false">Q18+S18/2</f>
         <v>8.5</v>
       </c>
-      <c r="U18" s="4" t="n">
+      <c r="U18" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(M18,O18,T18),0)</f>
         <v>9</v>
       </c>
-      <c r="V18" s="0" t="str">
+      <c r="V18" s="6" t="str">
         <f aca="false">IF(U18&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -4346,7 +4466,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>7</v>
@@ -4379,11 +4499,11 @@
         <f aca="false">Q19+S19/2</f>
         <v>10.5</v>
       </c>
-      <c r="U19" s="4" t="n">
+      <c r="U19" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(M19,O19,T19),0)</f>
         <v>10</v>
       </c>
-      <c r="V19" s="0" t="str">
+      <c r="V19" s="6" t="str">
         <f aca="false">IF(U19&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -4393,7 +4513,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>10</v>
@@ -4426,11 +4546,11 @@
         <f aca="false">Q20+S20/2</f>
         <v>10.5</v>
       </c>
-      <c r="U20" s="4" t="n">
+      <c r="U20" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(M20,O20,T20),0)</f>
         <v>10</v>
       </c>
-      <c r="V20" s="0" t="str">
+      <c r="V20" s="6" t="str">
         <f aca="false">IF(U20&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -4440,7 +4560,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>8</v>
@@ -4473,11 +4593,11 @@
         <f aca="false">Q21+S21/2</f>
         <v>2</v>
       </c>
-      <c r="U21" s="4" t="n">
+      <c r="U21" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(M21,O21,T21),0)</f>
         <v>1</v>
       </c>
-      <c r="V21" s="0" t="str">
+      <c r="V21" s="6" t="str">
         <f aca="false">IF(U21&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -4487,7 +4607,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>8</v>
@@ -4498,7 +4618,7 @@
       <c r="G22" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="I22" s="3" t="n">
+      <c r="I22" s="4" t="n">
         <v>6</v>
       </c>
       <c r="J22" s="2" t="n">
@@ -4523,11 +4643,11 @@
         <f aca="false">Q22+S22/2</f>
         <v>8</v>
       </c>
-      <c r="U22" s="4" t="n">
+      <c r="U22" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(M22,O22,T22),0)</f>
         <v>8</v>
       </c>
-      <c r="V22" s="0" t="str">
+      <c r="V22" s="6" t="str">
         <f aca="false">IF(U22&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -4537,7 +4657,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>9</v>
@@ -4570,11 +4690,11 @@
         <f aca="false">Q23+S23/2</f>
         <v>11.5</v>
       </c>
-      <c r="U23" s="4" t="n">
+      <c r="U23" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(M23,O23,T23),0)</f>
         <v>11</v>
       </c>
-      <c r="V23" s="0" t="str">
+      <c r="V23" s="6" t="str">
         <f aca="false">IF(U23&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -4584,7 +4704,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>10</v>
@@ -4617,11 +4737,11 @@
         <f aca="false">Q24+S24/2</f>
         <v>12</v>
       </c>
-      <c r="U24" s="4" t="n">
+      <c r="U24" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(M24,O24,T24),0)</f>
         <v>10</v>
       </c>
-      <c r="V24" s="0" t="str">
+      <c r="V24" s="6" t="str">
         <f aca="false">IF(U24&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -4631,7 +4751,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>10</v>
@@ -4664,11 +4784,11 @@
         <f aca="false">Q25+S25/2</f>
         <v>13.5</v>
       </c>
-      <c r="U25" s="4" t="n">
+      <c r="U25" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(M25,O25,T25),0)</f>
         <v>11</v>
       </c>
-      <c r="V25" s="0" t="str">
+      <c r="V25" s="6" t="str">
         <f aca="false">IF(U25&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -4678,7 +4798,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>8</v>
@@ -4711,11 +4831,11 @@
         <f aca="false">Q26+S26/2</f>
         <v>7</v>
       </c>
-      <c r="U26" s="4" t="n">
+      <c r="U26" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(M26,O26,T26),0)</f>
         <v>8</v>
       </c>
-      <c r="V26" s="0" t="str">
+      <c r="V26" s="6" t="str">
         <f aca="false">IF(U26&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -4725,7 +4845,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>1</v>
@@ -4758,11 +4878,11 @@
         <f aca="false">Q27+S27/2</f>
         <v>1</v>
       </c>
-      <c r="U27" s="4" t="n">
+      <c r="U27" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(M27,O27,T27),0)</f>
         <v>1</v>
       </c>
-      <c r="V27" s="0" t="str">
+      <c r="V27" s="6" t="str">
         <f aca="false">IF(U27&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -4793,18 +4913,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="V2:V27 G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.2"/>
   </cols>
   <sheetData>
@@ -4814,22 +4934,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>95</v>
-      </c>
       <c r="H1" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4837,16 +4957,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>10</v>
@@ -4865,13 +4985,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>5</v>
@@ -4882,16 +5002,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>1</v>
@@ -4905,16 +5025,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>6</v>
@@ -4928,16 +5048,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>7</v>
@@ -4956,13 +5076,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>6</v>
@@ -4970,13 +5090,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>6</v>
@@ -4984,13 +5104,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>5</v>
@@ -4998,13 +5118,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>4</v>
@@ -5015,7 +5135,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
@@ -5029,7 +5149,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>1</v>
@@ -5043,16 +5163,16 @@
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>8</v>
@@ -5066,16 +5186,16 @@
         <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>10</v>
@@ -5094,13 +5214,13 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>8</v>
@@ -5111,16 +5231,16 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>10</v>
@@ -5134,16 +5254,16 @@
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>10</v>
@@ -5157,16 +5277,16 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>0</v>
@@ -5180,7 +5300,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>1</v>
@@ -5194,16 +5314,16 @@
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>10</v>
@@ -5217,16 +5337,16 @@
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>8</v>
@@ -5240,7 +5360,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>1</v>
@@ -5254,16 +5374,16 @@
         <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>9</v>
@@ -5282,13 +5402,13 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>5</v>
@@ -5299,16 +5419,16 @@
         <v>17</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>7</v>
@@ -5322,16 +5442,16 @@
         <v>18</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>7</v>
@@ -5345,16 +5465,16 @@
         <v>19</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>10</v>
@@ -5368,16 +5488,16 @@
         <v>20</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>10</v>
@@ -5396,13 +5516,13 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>8</v>
@@ -5410,13 +5530,13 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>8</v>
@@ -5424,13 +5544,13 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>8</v>
@@ -5438,13 +5558,13 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>5</v>
@@ -5452,13 +5572,13 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>1</v>
@@ -5469,16 +5589,16 @@
         <v>21</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>9</v>
@@ -5497,13 +5617,13 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>6</v>
@@ -5514,16 +5634,16 @@
         <v>22</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>10</v>
@@ -5542,13 +5662,13 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>9</v>
@@ -5556,13 +5676,13 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>6</v>
@@ -5573,16 +5693,16 @@
         <v>23</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>10</v>
@@ -5596,16 +5716,16 @@
         <v>24</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>10</v>
@@ -5624,13 +5744,13 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>10</v>
@@ -5638,13 +5758,13 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>9</v>
@@ -5652,13 +5772,13 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>9</v>
@@ -5669,16 +5789,16 @@
         <v>25</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>9</v>
@@ -5697,13 +5817,13 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>8</v>
@@ -5711,13 +5831,13 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>7</v>
@@ -5725,13 +5845,13 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>3</v>
@@ -5742,7 +5862,7 @@
         <v>26</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>1</v>
@@ -5785,13 +5905,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="V2:V27 G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
@@ -5803,22 +5923,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>95</v>
-      </c>
       <c r="H1" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5826,16 +5946,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>10</v>
@@ -5854,13 +5974,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>9</v>
@@ -5868,13 +5988,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>6</v>
@@ -5885,7 +6005,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>1</v>
@@ -5899,16 +6019,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>8</v>
@@ -5927,13 +6047,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>7</v>
@@ -5941,13 +6061,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>6</v>
@@ -5958,7 +6078,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>1</v>
@@ -5972,7 +6092,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>1</v>
@@ -5986,7 +6106,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
@@ -6000,16 +6120,16 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>8</v>
@@ -6023,7 +6143,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>1</v>
@@ -6037,16 +6157,16 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>9</v>
@@ -6060,7 +6180,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>1</v>
@@ -6074,16 +6194,16 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>7</v>
@@ -6097,7 +6217,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>1</v>
@@ -6111,16 +6231,16 @@
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>10</v>
@@ -6134,16 +6254,16 @@
         <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>9</v>
@@ -6157,7 +6277,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>1</v>
@@ -6171,16 +6291,16 @@
         <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>7</v>
@@ -6194,16 +6314,16 @@
         <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>9</v>
@@ -6222,13 +6342,13 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>6</v>
@@ -6239,7 +6359,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>1</v>
@@ -6253,16 +6373,16 @@
         <v>19</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>9</v>
@@ -6281,13 +6401,13 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>7</v>
@@ -6298,7 +6418,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>1</v>
@@ -6312,16 +6432,16 @@
         <v>21</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>10</v>
@@ -6335,16 +6455,16 @@
         <v>22</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>10</v>
@@ -6358,16 +6478,16 @@
         <v>23</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>10</v>
@@ -6386,13 +6506,13 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>10</v>
@@ -6400,13 +6520,13 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>10</v>
@@ -6414,13 +6534,13 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>8</v>
@@ -6431,16 +6551,16 @@
         <v>24</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>10</v>
@@ -6454,16 +6574,16 @@
         <v>25</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>10</v>
@@ -6477,16 +6597,16 @@
         <v>26</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>5</v>
@@ -6526,17 +6646,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="1" sqref="V2:V27 I2"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.2"/>
   </cols>
   <sheetData>
@@ -6546,22 +6666,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>95</v>
-      </c>
       <c r="H1" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6569,16 +6689,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>10</v>
@@ -6592,7 +6712,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
@@ -6606,16 +6726,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>10</v>
@@ -6629,7 +6749,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>1</v>
@@ -6643,7 +6763,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>1</v>
@@ -6657,7 +6777,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>1</v>
@@ -6671,16 +6791,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>9</v>
@@ -6694,7 +6814,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>1</v>
@@ -6708,16 +6828,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>10</v>
@@ -6731,7 +6851,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
@@ -6745,16 +6865,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>6</v>
@@ -6773,13 +6893,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>10</v>
@@ -6790,7 +6910,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>1</v>
@@ -6804,16 +6924,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>9</v>
@@ -6827,16 +6947,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>9</v>
@@ -6850,7 +6970,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>1</v>
@@ -6864,16 +6984,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>10</v>
@@ -6887,16 +7007,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>9</v>
@@ -6915,13 +7035,13 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>5</v>
@@ -6929,13 +7049,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>9</v>
@@ -6946,7 +7066,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>1</v>
@@ -6960,16 +7080,16 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>10</v>
@@ -6983,7 +7103,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>1</v>
@@ -6997,16 +7117,16 @@
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>10</v>
@@ -7020,16 +7140,16 @@
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>10</v>
@@ -7043,16 +7163,16 @@
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>10</v>
@@ -7066,16 +7186,16 @@
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>10</v>
@@ -7089,16 +7209,16 @@
         <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>10</v>
@@ -7112,7 +7232,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>1</v>
@@ -7148,17 +7268,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="V2:V27 G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.2"/>
   </cols>
   <sheetData>
@@ -7167,22 +7287,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>95</v>
-      </c>
       <c r="H1" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7190,7 +7310,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
@@ -7204,7 +7324,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
@@ -7218,16 +7338,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>10</v>
@@ -7241,7 +7361,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>1</v>
@@ -7255,7 +7375,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>1</v>
@@ -7269,7 +7389,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>1</v>
@@ -7283,7 +7403,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1</v>
@@ -7297,7 +7417,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>1</v>
@@ -7311,16 +7431,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>10</v>
@@ -7339,13 +7459,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>8</v>
@@ -7356,7 +7476,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>1</v>
@@ -7370,7 +7490,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>1</v>
@@ -7384,7 +7504,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>1</v>
@@ -7398,16 +7518,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>10</v>
@@ -7421,16 +7541,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>9</v>
@@ -7444,7 +7564,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>1</v>
@@ -7458,16 +7578,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>7</v>
@@ -7481,16 +7601,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>9</v>
@@ -7504,16 +7624,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>7</v>
@@ -7527,16 +7647,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>9</v>
@@ -7555,13 +7675,13 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>6</v>
@@ -7572,7 +7692,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>1</v>
@@ -7586,7 +7706,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>1</v>
@@ -7600,16 +7720,16 @@
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>10</v>
@@ -7623,16 +7743,16 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>10</v>
@@ -7646,16 +7766,16 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>10</v>
@@ -7669,16 +7789,16 @@
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>8</v>
@@ -7692,7 +7812,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>1</v>
@@ -7735,17 +7855,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="V2:V27 G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.12"/>
   </cols>
@@ -7755,22 +7875,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>95</v>
-      </c>
       <c r="H1" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7778,16 +7898,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>8</v>
@@ -7801,7 +7921,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
@@ -7815,16 +7935,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>8</v>
@@ -7838,16 +7958,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>6</v>
@@ -7861,16 +7981,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>10</v>
@@ -7884,7 +8004,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>1</v>
@@ -7898,16 +8018,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>8</v>
@@ -7921,7 +8041,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>1</v>
@@ -7935,16 +8055,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>8</v>
@@ -7963,13 +8083,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>7</v>
@@ -7980,7 +8100,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>1</v>
@@ -7994,16 +8114,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>9</v>
@@ -8017,16 +8137,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>10</v>
@@ -8040,16 +8160,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>10</v>
@@ -8068,13 +8188,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>9</v>
@@ -8082,13 +8202,13 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>9</v>
@@ -8096,13 +8216,13 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>7</v>
@@ -8110,13 +8230,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>6</v>
@@ -8127,16 +8247,16 @@
         <v>14</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>9</v>
@@ -8150,7 +8270,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>1</v>
@@ -8164,16 +8284,16 @@
         <v>16</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>7</v>
@@ -8187,16 +8307,16 @@
         <v>17</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>9</v>
@@ -8210,16 +8330,16 @@
         <v>18</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>7</v>
@@ -8233,16 +8353,16 @@
         <v>19</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>10</v>
@@ -8256,7 +8376,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>1</v>
@@ -8270,16 +8390,16 @@
         <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>9</v>
@@ -8293,16 +8413,16 @@
         <v>22</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>10</v>
@@ -8321,13 +8441,13 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>9</v>
@@ -8335,13 +8455,13 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>6</v>
@@ -8349,13 +8469,13 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>6</v>
@@ -8363,13 +8483,13 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>6</v>
@@ -8377,13 +8497,13 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>5</v>
@@ -8394,21 +8514,21 @@
         <v>23</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="I34" s="3" t="n">
+      <c r="I34" s="4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -8417,16 +8537,16 @@
         <v>24</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>10</v>
@@ -8440,22 +8560,22 @@
         <v>25</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>8</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>8</v>
@@ -8467,13 +8587,13 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>8</v>
@@ -8481,13 +8601,13 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>5</v>
@@ -8498,7 +8618,7 @@
         <v>26</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>1</v>
@@ -8541,17 +8661,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H38" activeCellId="1" sqref="V2:V27 H38"/>
+      <selection pane="topLeft" activeCell="H38" activeCellId="0" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.12"/>
   </cols>
@@ -8561,22 +8681,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>95</v>
-      </c>
       <c r="H1" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8584,16 +8704,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>8</v>
@@ -8607,7 +8727,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
@@ -8621,16 +8741,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>8</v>
@@ -8649,13 +8769,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>7</v>
@@ -8666,16 +8786,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>2</v>
@@ -8689,16 +8809,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>10</v>
@@ -8717,13 +8837,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>9</v>
@@ -8731,13 +8851,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>7</v>
@@ -8745,13 +8865,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>6</v>
@@ -8759,13 +8879,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>4</v>
@@ -8776,7 +8896,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>1</v>
@@ -8790,16 +8910,16 @@
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>8</v>
@@ -8813,7 +8933,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>1</v>
@@ -8827,16 +8947,16 @@
         <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>10</v>
@@ -8850,7 +8970,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
@@ -8864,16 +8984,16 @@
         <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>10</v>
@@ -8887,16 +9007,16 @@
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>9</v>
@@ -8915,13 +9035,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>8</v>
@@ -8929,13 +9049,13 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>3</v>
@@ -8946,16 +9066,16 @@
         <v>13</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>10</v>
@@ -8974,13 +9094,13 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>8</v>
@@ -8988,13 +9108,13 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>8</v>
@@ -9005,16 +9125,16 @@
         <v>14</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>9</v>
@@ -9028,7 +9148,7 @@
         <v>15</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>1</v>
@@ -9042,16 +9162,16 @@
         <v>16</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>9</v>
@@ -9065,16 +9185,16 @@
         <v>17</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>10</v>
@@ -9093,13 +9213,13 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>6</v>
@@ -9110,16 +9230,16 @@
         <v>18</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>8</v>
@@ -9133,16 +9253,16 @@
         <v>19</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>9</v>
@@ -9156,7 +9276,7 @@
         <v>20</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>1</v>
@@ -9170,16 +9290,16 @@
         <v>21</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>8</v>
@@ -9193,16 +9313,16 @@
         <v>22</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>10</v>
@@ -9216,16 +9336,16 @@
         <v>23</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>9</v>
@@ -9239,16 +9359,16 @@
         <v>24</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>10</v>
@@ -9262,16 +9382,16 @@
         <v>25</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>8</v>
@@ -9285,7 +9405,7 @@
         <v>26</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>1</v>
@@ -9296,7 +9416,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H38" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I38" s="0" t="n">
         <f aca="false">COUNTIF(I2:I37,"&gt;0")</f>
@@ -9336,17 +9456,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H50" activeCellId="1" sqref="V2:V27 H50"/>
+      <selection pane="topLeft" activeCell="H50" activeCellId="0" sqref="H50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.12"/>
   </cols>
@@ -9356,22 +9476,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>95</v>
-      </c>
       <c r="H1" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9379,16 +9499,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>9</v>
@@ -9402,7 +9522,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
@@ -9416,16 +9536,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>10</v>
@@ -9444,13 +9564,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>6</v>
@@ -9461,7 +9581,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>1</v>
@@ -9475,16 +9595,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>10</v>
@@ -9503,13 +9623,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>9</v>
@@ -9517,13 +9637,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>9</v>
@@ -9531,13 +9651,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>7</v>
@@ -9545,13 +9665,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>5</v>
@@ -9559,13 +9679,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>4</v>
@@ -9576,7 +9696,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>1</v>
@@ -9590,16 +9710,16 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>10</v>
@@ -9613,7 +9733,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>1</v>
@@ -9627,16 +9747,16 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>8</v>
@@ -9650,7 +9770,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>1</v>
@@ -9664,16 +9784,16 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>9</v>
@@ -9687,16 +9807,16 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>8</v>
@@ -9710,16 +9830,16 @@
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>8</v>
@@ -9738,13 +9858,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>7</v>
@@ -9755,16 +9875,16 @@
         <v>14</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>5</v>
@@ -9778,7 +9898,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>1</v>
@@ -9792,16 +9912,16 @@
         <v>16</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>9</v>
@@ -9815,16 +9935,16 @@
         <v>17</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>10</v>
@@ -9838,16 +9958,16 @@
         <v>18</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>10</v>
@@ -9861,16 +9981,16 @@
         <v>19</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>9</v>
@@ -9884,7 +10004,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>1</v>
@@ -9898,16 +10018,16 @@
         <v>21</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>8</v>
@@ -9921,16 +10041,16 @@
         <v>22</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>10</v>
@@ -9944,16 +10064,16 @@
         <v>23</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>10</v>
@@ -9967,16 +10087,16 @@
         <v>24</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>10</v>
@@ -9995,13 +10115,13 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>10</v>
@@ -10009,13 +10129,13 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>10</v>
@@ -10023,13 +10143,13 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>10</v>
@@ -10037,13 +10157,13 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>10</v>
@@ -10051,13 +10171,13 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>10</v>
@@ -10065,13 +10185,13 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>10</v>
@@ -10079,13 +10199,13 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>10</v>
@@ -10093,13 +10213,13 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>10</v>
@@ -10107,13 +10227,13 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>10</v>
@@ -10121,13 +10241,13 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>10</v>
@@ -10135,13 +10255,13 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>10</v>
@@ -10149,13 +10269,13 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>9</v>
@@ -10163,13 +10283,13 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>7</v>
@@ -10177,13 +10297,13 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>7</v>
@@ -10194,16 +10314,16 @@
         <v>25</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>10</v>
@@ -10222,13 +10342,13 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>3</v>
@@ -10239,7 +10359,7 @@
         <v>26</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>1</v>
@@ -10250,7 +10370,7 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H50" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I50" s="0" t="n">
         <f aca="false">COUNTIF(I2:I49,"&gt;0")</f>

--- a/inasistencias-6A-sistDeCtrolVirtual/Alumnos-6A-SistDeCtrolVirtual.xlsx
+++ b/inasistencias-6A-sistDeCtrolVirtual/Alumnos-6A-SistDeCtrolVirtual.xlsx
@@ -1755,7 +1755,7 @@
     <numFmt numFmtId="166" formatCode="General"/>
     <numFmt numFmtId="167" formatCode="hh:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1778,8 +1778,29 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC9211E"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="AnjaliOldLipi"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1789,7 +1810,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF9800"/>
-        <bgColor rgb="FFFF6600"/>
+        <bgColor rgb="FFFFC107"/>
       </patternFill>
     </fill>
     <fill>
@@ -1802,6 +1823,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFEB3B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC107"/>
+        <bgColor rgb="FFFF9800"/>
       </patternFill>
     </fill>
   </fills>
@@ -1839,7 +1866,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1872,14 +1899,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1888,11 +1907,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1905,7 +1940,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="2">
     <dxf>
       <font>
         <name val="Calibri"/>
@@ -1917,56 +1952,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF232629"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9800"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB3B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2031,7 +2016,7 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFC107"/>
       <rgbColor rgb="FFFF9800"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
@@ -2040,7 +2025,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -2060,7 +2045,7 @@
       <selection pane="topLeft" activeCell="R14" activeCellId="0" sqref="R14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.62109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="21.98"/>
@@ -3670,7 +3655,7 @@
       <selection pane="topLeft" activeCell="H50" activeCellId="0" sqref="H50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
@@ -4625,7 +4610,7 @@
       <selection pane="topLeft" activeCell="I35" activeCellId="0" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
@@ -5382,7 +5367,7 @@
       <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.88"/>
@@ -6149,7 +6134,7 @@
       <selection pane="topLeft" activeCell="I24" activeCellId="0" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
@@ -6819,7 +6804,7 @@
       <selection pane="topLeft" activeCell="I39" activeCellId="0" sqref="I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
@@ -7542,14 +7527,16 @@
   <dimension ref="A1:AN27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="36" zoomScaleNormal="36" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="AB27" activeCellId="0" sqref="AB27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="3" style="0" width="9.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="4" style="0" width="9.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="7.38"/>
   </cols>
   <sheetData>
@@ -7707,30 +7694,30 @@
         <f aca="false">Q2+S2/2</f>
         <v>7</v>
       </c>
-      <c r="U2" s="8" t="n">
+      <c r="U2" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(M2,O2,T2),0)</f>
         <v>8</v>
       </c>
-      <c r="V2" s="9" t="str">
+      <c r="V2" s="3" t="str">
         <f aca="false">IF(U2&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="W2" s="9" t="n">
+      <c r="W2" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB2" s="9"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB2" s="3"/>
       <c r="AC2" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="AD2" s="8" t="n">
+      <c r="AD2" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(AC2,AA2,Y2,W2,U2),0)</f>
         <v>8</v>
       </c>
@@ -7751,7 +7738,7 @@
       <c r="E3" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="F3" s="10" t="n">
+      <c r="F3" s="8" t="n">
         <v>45846</v>
       </c>
       <c r="G3" s="0" t="n">
@@ -7779,30 +7766,30 @@
         <f aca="false">Q3+S3/2</f>
         <v>1.5</v>
       </c>
-      <c r="U3" s="8" t="n">
+      <c r="U3" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(M3,O3,T3),0)</f>
         <v>1</v>
       </c>
-      <c r="V3" s="9" t="str">
+      <c r="V3" s="3" t="str">
         <f aca="false">IF(U3&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-      <c r="W3" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9" t="n">
+      <c r="W3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="AD3" s="8" t="n">
+      <c r="AD3" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(AC3,AA3,Y3,W3,U3),0)</f>
         <v>2</v>
       </c>
@@ -7848,30 +7835,30 @@
         <f aca="false">Q4+S4/2</f>
         <v>9.5</v>
       </c>
-      <c r="U4" s="8" t="n">
+      <c r="U4" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(M4,O4,T4),0)</f>
         <v>9</v>
       </c>
-      <c r="V4" s="9" t="str">
+      <c r="V4" s="3" t="str">
         <f aca="false">IF(U4&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="W4" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD4" s="8" t="n">
+      <c r="W4" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD4" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(AC4,AA4,Y4,W4,U4),0)</f>
         <v>9</v>
       </c>
@@ -7879,7 +7866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
@@ -7892,25 +7879,25 @@
       <c r="E5" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="F5" s="10" t="n">
+      <c r="F5" s="8" t="n">
         <v>45940</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="H5" s="10" t="n">
+      <c r="H5" s="8" t="n">
         <v>45848</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J5" s="10" t="n">
+      <c r="J5" s="8" t="n">
         <v>45848</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="L5" s="10" t="n">
+      <c r="L5" s="8" t="n">
         <v>45848</v>
       </c>
       <c r="M5" s="0" t="n">
@@ -7919,52 +7906,54 @@
       <c r="O5" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="P5" s="10" t="n">
+      <c r="P5" s="8" t="n">
         <v>45848</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="R5" s="10" t="n">
+      <c r="R5" s="8" t="n">
         <v>45848</v>
       </c>
-      <c r="S5" s="0" t="n">
-        <v>0</v>
+      <c r="S5" s="9" t="n">
+        <v>15</v>
       </c>
       <c r="T5" s="0" t="n">
         <f aca="false">Q5+S5/2</f>
-        <v>6</v>
-      </c>
-      <c r="U5" s="8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="U5" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(M5,O5,T5),0)</f>
-        <v>5</v>
-      </c>
-      <c r="V5" s="9" t="str">
+        <v>8</v>
+      </c>
+      <c r="V5" s="3" t="str">
         <f aca="false">IF(U5&lt;7,"TEP","TEA")</f>
-        <v>TEP</v>
-      </c>
-      <c r="W5" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="X5" s="10" t="n">
+        <v>TEA</v>
+      </c>
+      <c r="W5" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="X5" s="8" t="n">
         <v>45848</v>
       </c>
-      <c r="Y5" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z5" s="10" t="n">
+      <c r="Y5" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z5" s="8" t="n">
         <v>45848</v>
       </c>
-      <c r="AA5" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="9" t="n">
+      <c r="AA5" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB5" s="11" t="n">
+        <v>45848</v>
+      </c>
+      <c r="AC5" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="AD5" s="8" t="n">
+      <c r="AD5" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(AC5,AA5,Y5,W5,U5),0)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AH5" s="0" t="n">
         <v>10</v>
@@ -8008,30 +7997,30 @@
         <f aca="false">Q6+S6/2</f>
         <v>9</v>
       </c>
-      <c r="U6" s="8" t="n">
+      <c r="U6" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(M6,O6,T6),0)</f>
         <v>10</v>
       </c>
-      <c r="V6" s="9" t="str">
+      <c r="V6" s="3" t="str">
         <f aca="false">IF(U6&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="W6" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9" t="n">
+      <c r="W6" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD6" s="8" t="n">
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD6" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(AC6,AA6,Y6,W6,U6),0)</f>
         <v>9</v>
       </c>
@@ -8077,30 +8066,30 @@
         <f aca="false">Q7+S7/2</f>
         <v>1</v>
       </c>
-      <c r="U7" s="8" t="n">
+      <c r="U7" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(M7,O7,T7),0)</f>
         <v>1</v>
       </c>
-      <c r="V7" s="9" t="str">
+      <c r="V7" s="3" t="str">
         <f aca="false">IF(U7&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-      <c r="W7" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9" t="n">
+      <c r="W7" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AD7" s="8" t="n">
+      <c r="AD7" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(AC7,AA7,Y7,W7,U7),0)</f>
         <v>2</v>
       </c>
@@ -8149,34 +8138,34 @@
         <f aca="false">Q8+S8/2</f>
         <v>10</v>
       </c>
-      <c r="U8" s="8" t="n">
+      <c r="U8" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(M8,O8,T8),0)</f>
         <v>9</v>
       </c>
-      <c r="V8" s="9" t="str">
+      <c r="V8" s="3" t="str">
         <f aca="false">IF(U8&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="W8" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z8" s="10" t="n">
+      <c r="W8" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z8" s="8" t="n">
         <v>45849</v>
       </c>
-      <c r="AA8" s="11" t="n">
+      <c r="AA8" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="AB8" s="10" t="n">
+      <c r="AB8" s="8" t="n">
         <v>45849</v>
       </c>
-      <c r="AC8" s="9" t="n">
+      <c r="AC8" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="AD8" s="8" t="n">
+      <c r="AD8" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(AC8,AA8,Y8,W8,U8),0)</f>
         <v>8</v>
       </c>
@@ -8184,7 +8173,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="16.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
@@ -8197,25 +8186,25 @@
       <c r="E9" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="F9" s="10" t="n">
+      <c r="F9" s="8" t="n">
         <v>45846</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="H9" s="10" t="n">
+      <c r="H9" s="8" t="n">
         <v>45846</v>
       </c>
       <c r="I9" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="J9" s="10" t="n">
+      <c r="J9" s="8" t="n">
         <v>45846</v>
       </c>
       <c r="K9" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="L9" s="10" t="n">
+      <c r="L9" s="8" t="n">
         <v>45848</v>
       </c>
       <c r="M9" s="0" t="n">
@@ -8224,13 +8213,13 @@
       <c r="O9" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="P9" s="10" t="n">
+      <c r="P9" s="8" t="n">
         <v>45848</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="R9" s="10" t="n">
+      <c r="R9" s="8" t="n">
         <v>45848</v>
       </c>
       <c r="S9" s="0" t="n">
@@ -8240,36 +8229,38 @@
         <f aca="false">Q9+S9/2</f>
         <v>8</v>
       </c>
-      <c r="U9" s="8" t="n">
+      <c r="U9" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(M9,O9,T9),0)</f>
         <v>6</v>
       </c>
-      <c r="V9" s="9" t="str">
+      <c r="V9" s="3" t="str">
         <f aca="false">IF(U9&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-      <c r="W9" s="11" t="n">
+      <c r="W9" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="X9" s="10" t="n">
+      <c r="X9" s="8" t="n">
         <v>45848</v>
       </c>
-      <c r="Y9" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z9" s="10" t="n">
+      <c r="Y9" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z9" s="8" t="n">
         <v>45848</v>
       </c>
       <c r="AA9" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD9" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB9" s="8" t="n">
+        <v>45848</v>
+      </c>
+      <c r="AC9" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD9" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(AC9,AA9,Y9,W9,U9),0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH9" s="0" t="n">
         <v>1</v>
@@ -8313,36 +8304,36 @@
         <f aca="false">Q10+S10/2</f>
         <v>16</v>
       </c>
-      <c r="U10" s="8" t="n">
+      <c r="U10" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(M10,O10,T10),0)</f>
         <v>11</v>
       </c>
-      <c r="V10" s="9" t="str">
+      <c r="V10" s="3" t="str">
         <f aca="false">IF(U10&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="W10" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="X10" s="10" t="n">
+      <c r="W10" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="X10" s="8" t="n">
         <v>45848</v>
       </c>
-      <c r="Y10" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z10" s="10" t="n">
+      <c r="Y10" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z10" s="8" t="n">
         <v>45849</v>
       </c>
-      <c r="AA10" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB10" s="10" t="n">
+      <c r="AA10" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB10" s="8" t="n">
         <v>45848</v>
       </c>
-      <c r="AC10" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD10" s="8" t="n">
+      <c r="AC10" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD10" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(AC10,AA10,Y10,W10,U10),0)</f>
         <v>9</v>
       </c>
@@ -8424,34 +8415,34 @@
         <f aca="false">Q11+S11/2</f>
         <v>9</v>
       </c>
-      <c r="U11" s="8" t="n">
+      <c r="U11" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(M11,O11,T11),0)</f>
         <v>8</v>
       </c>
-      <c r="V11" s="9" t="str">
+      <c r="V11" s="3" t="str">
         <f aca="false">IF(U11&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="W11" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="X11" s="10" t="n">
+      <c r="W11" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="X11" s="8" t="n">
         <v>45848</v>
       </c>
-      <c r="Y11" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z11" s="10" t="n">
+      <c r="Y11" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z11" s="8" t="n">
         <v>45848</v>
       </c>
-      <c r="AA11" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="9" t="n">
+      <c r="AA11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="AD11" s="8" t="n">
+      <c r="AD11" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(AC11,AA11,Y11,W11,U11),0)</f>
         <v>6</v>
       </c>
@@ -8497,30 +8488,30 @@
         <f aca="false">Q12+S12/2</f>
         <v>10.5</v>
       </c>
-      <c r="U12" s="8" t="n">
+      <c r="U12" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(M12,O12,T12),0)</f>
         <v>10</v>
       </c>
-      <c r="V12" s="9" t="str">
+      <c r="V12" s="3" t="str">
         <f aca="false">IF(U12&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="W12" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="9" t="n">
+      <c r="W12" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="AD12" s="8" t="n">
+      <c r="AD12" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(AC12,AA12,Y12,W12,U12),0)</f>
         <v>9</v>
       </c>
@@ -8528,7 +8519,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="16.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>11</v>
       </c>
@@ -8578,34 +8569,38 @@
         <f aca="false">Q13+S13/2</f>
         <v>8.5</v>
       </c>
-      <c r="U13" s="8" t="n">
+      <c r="U13" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(M13,O13,T13),0)</f>
         <v>9</v>
       </c>
-      <c r="V13" s="9" t="str">
+      <c r="V13" s="3" t="str">
         <f aca="false">IF(U13&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="W13" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="X13" s="10" t="n">
+      <c r="W13" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="X13" s="8" t="n">
         <v>45848</v>
       </c>
       <c r="Y13" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="9"/>
+        <v>7</v>
+      </c>
+      <c r="Z13" s="8" t="n">
+        <v>45848</v>
+      </c>
       <c r="AA13" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="AD13" s="8" t="n">
+      <c r="AB13" s="8" t="n">
+        <v>45848</v>
+      </c>
+      <c r="AC13" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD13" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(AC13,AA13,Y13,W13,U13),0)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AH13" s="0" t="n">
         <v>10</v>
@@ -8649,30 +8644,30 @@
         <f aca="false">Q14+S14/2</f>
         <v>9</v>
       </c>
-      <c r="U14" s="8" t="n">
+      <c r="U14" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(M14,O14,T14),0)</f>
         <v>9</v>
       </c>
-      <c r="V14" s="9" t="str">
+      <c r="V14" s="3" t="str">
         <f aca="false">IF(U14&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="W14" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD14" s="8" t="n">
+      <c r="W14" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD14" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(AC14,AA14,Y14,W14,U14),0)</f>
         <v>10</v>
       </c>
@@ -8680,7 +8675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="16.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>13</v>
       </c>
@@ -8715,35 +8710,40 @@
         <v>4</v>
       </c>
       <c r="T15" s="0" t="n">
-        <f aca="false">Q15+S15/2</f>
-        <v>9</v>
-      </c>
-      <c r="U15" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="U15" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(M15,O15,T15),0)</f>
         <v>8</v>
       </c>
-      <c r="V15" s="9" t="str">
+      <c r="V15" s="3" t="str">
         <f aca="false">IF(U15&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="W15" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="X15" s="9"/>
+      <c r="W15" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="X15" s="8" t="n">
+        <v>45848</v>
+      </c>
       <c r="Y15" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="Z15" s="8" t="n">
+        <v>45848</v>
+      </c>
       <c r="AA15" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD15" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB15" s="8" t="n">
+        <v>45848</v>
+      </c>
+      <c r="AC15" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD15" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(AC15,AA15,Y15,W15,U15),0)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AH15" s="0" t="n">
         <v>1</v>
@@ -8762,25 +8762,25 @@
       <c r="E16" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="F16" s="10" t="n">
+      <c r="F16" s="8" t="n">
         <v>45846</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="H16" s="10" t="n">
+      <c r="H16" s="8" t="n">
         <v>45846</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="J16" s="10" t="n">
+      <c r="J16" s="8" t="n">
         <v>45846</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="L16" s="10" t="n">
+      <c r="L16" s="8" t="n">
         <v>45848</v>
       </c>
       <c r="M16" s="0" t="n">
@@ -8789,13 +8789,13 @@
       <c r="O16" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="P16" s="10" t="n">
+      <c r="P16" s="8" t="n">
         <v>45848</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="R16" s="10" t="n">
+      <c r="R16" s="8" t="n">
         <v>45848</v>
       </c>
       <c r="S16" s="0" t="n">
@@ -8805,34 +8805,34 @@
         <f aca="false">Q16+S16/2</f>
         <v>6</v>
       </c>
-      <c r="U16" s="8" t="n">
+      <c r="U16" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(M16,O16,T16),0)</f>
         <v>5</v>
       </c>
-      <c r="V16" s="9" t="str">
+      <c r="V16" s="3" t="str">
         <f aca="false">IF(U16&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-      <c r="W16" s="11" t="n">
+      <c r="W16" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="X16" s="10" t="n">
+      <c r="X16" s="8" t="n">
         <v>45848</v>
       </c>
-      <c r="Y16" s="11" t="n">
+      <c r="Y16" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="Z16" s="10" t="n">
+      <c r="Z16" s="8" t="n">
         <v>45848</v>
       </c>
-      <c r="AA16" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB16" s="9"/>
-      <c r="AC16" s="9" t="n">
+      <c r="AA16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="AD16" s="8" t="n">
+      <c r="AD16" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(AC16,AA16,Y16,W16,U16),0)</f>
         <v>5</v>
       </c>
@@ -8881,30 +8881,30 @@
         <f aca="false">Q17+S17/2</f>
         <v>10.5</v>
       </c>
-      <c r="U17" s="8" t="n">
+      <c r="U17" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(M17,O17,T17),0)</f>
         <v>10</v>
       </c>
-      <c r="V17" s="9" t="str">
+      <c r="V17" s="3" t="str">
         <f aca="false">IF(U17&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="W17" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9" t="s">
+      <c r="W17" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="Z17" s="9"/>
-      <c r="AA17" s="9" t="n">
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="AB17" s="9"/>
-      <c r="AC17" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD17" s="8" t="n">
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD17" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(AC17,AA17,Y17,W17,U17),0)</f>
         <v>9</v>
       </c>
@@ -8912,7 +8912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="16.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>16</v>
       </c>
@@ -8950,34 +8950,36 @@
         <f aca="false">Q18+S18/2</f>
         <v>8.5</v>
       </c>
-      <c r="U18" s="8" t="n">
+      <c r="U18" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(M18,O18,T18),0)</f>
         <v>9</v>
       </c>
-      <c r="V18" s="9" t="str">
+      <c r="V18" s="3" t="str">
         <f aca="false">IF(U18&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="W18" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="9"/>
-      <c r="AA18" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB18" s="10" t="n">
+      <c r="W18" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="14" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z18" s="2" t="n">
         <v>45848</v>
       </c>
-      <c r="AC18" s="9" t="n">
+      <c r="AA18" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB18" s="8" t="n">
+        <v>45848</v>
+      </c>
+      <c r="AC18" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="AD18" s="8" t="n">
+      <c r="AD18" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(AC18,AA18,Y18,W18,U18),0)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9018,30 +9020,30 @@
         <f aca="false">Q19+S19/2</f>
         <v>10.5</v>
       </c>
-      <c r="U19" s="8" t="n">
+      <c r="U19" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(M19,O19,T19),0)</f>
         <v>10</v>
       </c>
-      <c r="V19" s="9" t="str">
+      <c r="V19" s="3" t="str">
         <f aca="false">IF(U19&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="W19" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z19" s="9"/>
-      <c r="AA19" s="9" t="n">
+      <c r="W19" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="AB19" s="9"/>
-      <c r="AC19" s="9" t="n">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="AD19" s="8" t="n">
+      <c r="AD19" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(AC19,AA19,Y19,W19,U19),0)</f>
         <v>8</v>
       </c>
@@ -9084,30 +9086,30 @@
         <f aca="false">Q20+S20/2</f>
         <v>11</v>
       </c>
-      <c r="U20" s="8" t="n">
+      <c r="U20" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(M20,O20,T20),0)</f>
         <v>10</v>
       </c>
-      <c r="V20" s="9" t="str">
+      <c r="V20" s="3" t="str">
         <f aca="false">IF(U20&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="W20" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB20" s="9"/>
-      <c r="AC20" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD20" s="8" t="n">
+      <c r="W20" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD20" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(AC20,AA20,Y20,W20,U20),0)</f>
         <v>9</v>
       </c>
@@ -9150,30 +9152,30 @@
         <f aca="false">Q21+S21/2</f>
         <v>2</v>
       </c>
-      <c r="U21" s="8" t="n">
+      <c r="U21" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(M21,O21,T21),0)</f>
         <v>1</v>
       </c>
-      <c r="V21" s="9" t="str">
+      <c r="V21" s="3" t="str">
         <f aca="false">IF(U21&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-      <c r="W21" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z21" s="9"/>
-      <c r="AA21" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB21" s="9"/>
-      <c r="AC21" s="9" t="n">
+      <c r="W21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="AD21" s="8" t="n">
+      <c r="AD21" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(AC21,AA21,Y21,W21,U21),0)</f>
         <v>2</v>
       </c>
@@ -9219,30 +9221,30 @@
         <f aca="false">Q22+S22/2</f>
         <v>8</v>
       </c>
-      <c r="U22" s="8" t="n">
+      <c r="U22" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(M22,O22,T22),0)</f>
         <v>8</v>
       </c>
-      <c r="V22" s="9" t="str">
+      <c r="V22" s="3" t="str">
         <f aca="false">IF(U22&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="W22" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD22" s="8" t="n">
+      <c r="W22" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD22" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(AC22,AA22,Y22,W22,U22),0)</f>
         <v>8</v>
       </c>
@@ -9285,30 +9287,30 @@
         <f aca="false">Q23+S23/2</f>
         <v>11.5</v>
       </c>
-      <c r="U23" s="8" t="n">
+      <c r="U23" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(M23,O23,T23),0)</f>
         <v>11</v>
       </c>
-      <c r="V23" s="9" t="str">
+      <c r="V23" s="3" t="str">
         <f aca="false">IF(U23&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="W23" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD23" s="8" t="n">
+      <c r="W23" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD23" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(AC23,AA23,Y23,W23,U23),0)</f>
         <v>10</v>
       </c>
@@ -9369,29 +9371,29 @@
         <f aca="false">Q24+S24/2</f>
         <v>16.5</v>
       </c>
-      <c r="U24" s="8" t="n">
+      <c r="U24" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(M24,O24,T24),0)</f>
         <v>12</v>
       </c>
-      <c r="V24" s="9" t="str">
+      <c r="V24" s="3" t="str">
         <f aca="false">IF(U24&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
       <c r="W24" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="Y24" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z24" s="9"/>
-      <c r="AA24" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB24" s="9"/>
-      <c r="AC24" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD24" s="8" t="n">
+      <c r="Y24" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD24" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(AC24,AA24,Y24,W24,U24),0)</f>
         <v>10</v>
       </c>
@@ -9434,11 +9436,11 @@
         <f aca="false">Q25+S25/2</f>
         <v>13.5</v>
       </c>
-      <c r="U25" s="8" t="n">
+      <c r="U25" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(M25,O25,T25),0)</f>
         <v>11</v>
       </c>
-      <c r="V25" s="9" t="str">
+      <c r="V25" s="3" t="str">
         <f aca="false">IF(U25&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -9451,10 +9453,10 @@
       <c r="AA25" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="AC25" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD25" s="8" t="n">
+      <c r="AC25" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD25" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(AC25,AA25,Y25,W25,U25),0)</f>
         <v>10</v>
       </c>
@@ -9477,7 +9479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="16.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>24</v>
       </c>
@@ -9515,35 +9517,38 @@
         <f aca="false">Q26+S26/2</f>
         <v>10.5</v>
       </c>
-      <c r="U26" s="8" t="n">
+      <c r="U26" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(M26,O26,T26),0)</f>
         <v>9</v>
       </c>
-      <c r="V26" s="9" t="str">
+      <c r="V26" s="3" t="str">
         <f aca="false">IF(U26&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="W26" s="13" t="n">
+      <c r="W26" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="X26" s="10" t="n">
+      <c r="X26" s="8" t="n">
         <v>45848</v>
       </c>
-      <c r="Y26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA26" s="13" t="n">
+      <c r="Y26" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z26" s="8" t="n">
+        <v>45848</v>
+      </c>
+      <c r="AA26" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="AB26" s="10" t="n">
+      <c r="AB26" s="8" t="n">
         <v>45848</v>
       </c>
-      <c r="AC26" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD26" s="8" t="n">
+      <c r="AC26" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD26" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(AC26,AA26,Y26,W26,U26),0)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH26" s="0" t="n">
         <v>7</v>
@@ -9571,79 +9576,79 @@
       <c r="B27" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="0" t="n">
-        <v>1</v>
+      <c r="C27" s="15" t="n">
+        <v>8</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="F27" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="F27" s="8" t="n">
         <v>45852</v>
       </c>
       <c r="G27" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="H27" s="10" t="n">
+      <c r="H27" s="8" t="n">
         <v>45852</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K27" s="0" t="n">
-        <v>1</v>
+      <c r="K27" s="15" t="n">
+        <v>6</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="N27" s="10" t="n">
+      <c r="N27" s="8" t="n">
         <v>45852</v>
       </c>
-      <c r="O27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="0" t="n">
-        <v>1</v>
+      <c r="O27" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q27" s="15" t="n">
+        <v>7</v>
       </c>
       <c r="S27" s="0" t="n">
         <v>1</v>
       </c>
       <c r="T27" s="0" t="n">
         <f aca="false">Q27+S27/2</f>
-        <v>1.5</v>
-      </c>
-      <c r="U27" s="8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U27" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(M27,O27,T27),0)</f>
-        <v>4</v>
-      </c>
-      <c r="V27" s="9" t="str">
+        <v>8</v>
+      </c>
+      <c r="V27" s="3" t="str">
         <f aca="false">IF(U27&lt;7,"TEP","TEA")</f>
-        <v>TEP</v>
-      </c>
-      <c r="W27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA27" s="0" t="n">
-        <v>1</v>
+        <v>TEA</v>
+      </c>
+      <c r="W27" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y27" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA27" s="15" t="n">
+        <v>7</v>
       </c>
       <c r="AC27" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AD27" s="8" t="n">
+      <c r="AD27" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(AC27,AA27,Y27,W27,U27),0)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="U2:U27">
-    <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD2:AD27 V24:V27 V7:X23 AC4:AC26 Y7:AB24 V2:AB6">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+  <conditionalFormatting sqref="AD2:AD27 V24:V27 V7:X23 AC4:AC26 V2:AB6 Y7:AB24">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"TEP"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9673,7 +9678,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.11"/>
@@ -10119,7 +10124,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.98"/>
@@ -11111,7 +11116,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
@@ -11852,7 +11857,7 @@
       <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
@@ -12474,7 +12479,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
@@ -13061,7 +13066,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
@@ -13867,7 +13872,7 @@
       <selection pane="topLeft" activeCell="H38" activeCellId="0" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>

--- a/inasistencias-6A-sistDeCtrolVirtual/Alumnos-6A-SistDeCtrolVirtual.xlsx
+++ b/inasistencias-6A-sistDeCtrolVirtual/Alumnos-6A-SistDeCtrolVirtual.xlsx
@@ -1866,7 +1866,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1915,7 +1915,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1940,7 +1960,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
     <dxf>
       <font>
         <name val="Calibri"/>
@@ -1952,6 +1972,21 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <b val="1"/>
+        <color rgb="FFFFFFFF"/>
+        <sz val="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2041,11 +2076,11 @@
   </sheetPr>
   <dimension ref="A1:W28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="36" zoomScaleNormal="36" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R14" activeCellId="0" sqref="R14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R14" activeCellId="1" sqref="27:27 R14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="21.98"/>
@@ -3651,11 +3686,11 @@
   </sheetPr>
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="36" zoomScaleNormal="36" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H50" activeCellId="0" sqref="H50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H50" activeCellId="1" sqref="27:27 H50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
@@ -4606,11 +4641,11 @@
   </sheetPr>
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="36" zoomScaleNormal="36" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I35" activeCellId="0" sqref="I35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I35" activeCellId="1" sqref="27:27 I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
@@ -5363,11 +5398,11 @@
   </sheetPr>
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="36" zoomScaleNormal="36" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A20" activeCellId="1" sqref="27:27 A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.38671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.88"/>
@@ -6130,11 +6165,11 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="36" zoomScaleNormal="36" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I24" activeCellId="0" sqref="I24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I24" activeCellId="1" sqref="27:27 I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.38671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
@@ -6800,11 +6835,11 @@
   </sheetPr>
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="36" zoomScaleNormal="36" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I39" activeCellId="0" sqref="I39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I39" activeCellId="1" sqref="27:27 I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.38671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
@@ -7526,18 +7561,20 @@
   </sheetPr>
   <dimension ref="A1:AN27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="36" zoomScaleNormal="36" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB27" activeCellId="0" sqref="AB27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B4" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="27:27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="4" style="0" width="9.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="7.38"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="3" min="3" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="12" min="4" style="0" width="9.33"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="13" min="13" style="0" width="9.48"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="14" min="14" style="0" width="8.82"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="19" min="15" style="0" width="9.48"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="20" min="20" style="0" width="7.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7959,141 +7996,141 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" s="12" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="O6" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="S6" s="0" t="n">
+      <c r="C6" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="M6" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="O6" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="S6" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="T6" s="0" t="n">
+      <c r="T6" s="12" t="n">
         <f aca="false">Q6+S6/2</f>
         <v>9</v>
       </c>
-      <c r="U6" s="3" t="n">
+      <c r="U6" s="14" t="n">
         <f aca="false">ROUND(AVERAGE(M6,O6,T6),0)</f>
         <v>10</v>
       </c>
-      <c r="V6" s="3" t="str">
+      <c r="V6" s="14" t="str">
         <f aca="false">IF(U6&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="W6" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3" t="n">
+      <c r="W6" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD6" s="3" t="n">
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD6" s="14" t="n">
         <f aca="false">ROUND(AVERAGE(AC6,AA6,Y6,W6,U6),0)</f>
         <v>9</v>
       </c>
-      <c r="AH6" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="AH6" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="15" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" s="0" t="n">
+      <c r="C7" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="T7" s="0" t="n">
+      <c r="T7" s="15" t="n">
         <f aca="false">Q7+S7/2</f>
         <v>1</v>
       </c>
-      <c r="U7" s="3" t="n">
+      <c r="U7" s="17" t="n">
         <f aca="false">ROUND(AVERAGE(M7,O7,T7),0)</f>
         <v>1</v>
       </c>
-      <c r="V7" s="3" t="str">
+      <c r="V7" s="17" t="str">
         <f aca="false">IF(U7&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-      <c r="W7" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3" t="n">
+      <c r="W7" s="17" t="n">
+        <v>9</v>
+      </c>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="17" t="n">
         <v>0</v>
       </c>
-      <c r="AD7" s="3" t="n">
+      <c r="AD7" s="17" t="n">
         <f aca="false">ROUND(AVERAGE(AC7,AA7,Y7,W7,U7),0)</f>
         <v>2</v>
       </c>
-      <c r="AH7" s="0" t="n">
+      <c r="AH7" s="15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8366,13 +8403,13 @@
       <c r="C11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E11" s="12" t="n">
+      <c r="E11" s="15" t="n">
         <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>45783</v>
       </c>
-      <c r="G11" s="12" t="n">
+      <c r="G11" s="15" t="n">
         <v>6</v>
       </c>
       <c r="H11" s="2" t="n">
@@ -8526,25 +8563,25 @@
       <c r="B13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="12" t="n">
+      <c r="C13" s="15" t="n">
         <v>8</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>45780</v>
       </c>
-      <c r="E13" s="12" t="n">
+      <c r="E13" s="15" t="n">
         <v>8</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>45780</v>
       </c>
-      <c r="G13" s="12" t="n">
+      <c r="G13" s="15" t="n">
         <v>9</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>45780</v>
       </c>
-      <c r="I13" s="12" t="n">
+      <c r="I13" s="15" t="n">
         <v>5</v>
       </c>
       <c r="J13" s="2" t="n">
@@ -8720,7 +8757,7 @@
         <f aca="false">IF(U15&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="W15" s="13" t="n">
+      <c r="W15" s="18" t="n">
         <v>5</v>
       </c>
       <c r="X15" s="8" t="n">
@@ -8962,7 +8999,7 @@
         <v>10</v>
       </c>
       <c r="X18" s="3"/>
-      <c r="Y18" s="14" t="n">
+      <c r="Y18" s="19" t="n">
         <v>9</v>
       </c>
       <c r="Z18" s="2" t="n">
@@ -9576,7 +9613,7 @@
       <c r="B27" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="15" t="n">
+      <c r="C27" s="20" t="n">
         <v>8</v>
       </c>
       <c r="E27" s="5" t="n">
@@ -9594,7 +9631,7 @@
       <c r="I27" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K27" s="15" t="n">
+      <c r="K27" s="20" t="n">
         <v>6</v>
       </c>
       <c r="M27" s="5" t="n">
@@ -9603,10 +9640,10 @@
       <c r="N27" s="8" t="n">
         <v>45852</v>
       </c>
-      <c r="O27" s="15" t="n">
+      <c r="O27" s="20" t="n">
         <v>6</v>
       </c>
-      <c r="Q27" s="15" t="n">
+      <c r="Q27" s="20" t="n">
         <v>7</v>
       </c>
       <c r="S27" s="0" t="n">
@@ -9624,13 +9661,13 @@
         <f aca="false">IF(U27&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="W27" s="15" t="n">
+      <c r="W27" s="20" t="n">
         <v>6</v>
       </c>
-      <c r="Y27" s="15" t="n">
+      <c r="Y27" s="20" t="n">
         <v>7</v>
       </c>
-      <c r="AA27" s="15" t="n">
+      <c r="AA27" s="20" t="n">
         <v>7</v>
       </c>
       <c r="AC27" s="0" t="n">
@@ -9655,6 +9692,9 @@
   <conditionalFormatting sqref="AD2:AD27">
     <cfRule type="cellIs" priority="4" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -9674,11 +9714,11 @@
   </sheetPr>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="36" zoomScaleNormal="36" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="27:27 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.11"/>
@@ -10120,11 +10160,11 @@
   </sheetPr>
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="36" zoomScaleNormal="36" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="27:27 G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.98"/>
@@ -11112,11 +11152,11 @@
   </sheetPr>
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="36" zoomScaleNormal="36" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="27:27 G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
@@ -11853,11 +11893,11 @@
   </sheetPr>
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="36" zoomScaleNormal="36" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="1" sqref="27:27 I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
@@ -12475,11 +12515,11 @@
   </sheetPr>
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="36" zoomScaleNormal="36" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="27:27 G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
@@ -13062,11 +13102,11 @@
   </sheetPr>
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="36" zoomScaleNormal="36" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="27:27 G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
@@ -13868,11 +13908,11 @@
   </sheetPr>
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="36" zoomScaleNormal="36" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H38" activeCellId="0" sqref="H38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H38" activeCellId="1" sqref="27:27 H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>

--- a/inasistencias-6A-sistDeCtrolVirtual/Alumnos-6A-SistDeCtrolVirtual.xlsx
+++ b/inasistencias-6A-sistDeCtrolVirtual/Alumnos-6A-SistDeCtrolVirtual.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1631" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="572">
   <si>
     <t xml:space="preserve">nro</t>
   </si>
@@ -374,6 +374,9 @@
     <t xml:space="preserve">Asistencia</t>
   </si>
   <si>
+    <t xml:space="preserve">OBS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Repositorio</t>
   </si>
   <si>
@@ -393,6 +396,9 @@
   </si>
   <si>
     <t xml:space="preserve">tp-5js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aprobo Agosto</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -1866,7 +1872,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1899,6 +1905,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1915,23 +1925,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1943,11 +1945,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1960,7 +1970,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
       <font>
         <name val="Calibri"/>
@@ -2004,6 +2014,15 @@
           <bgColor rgb="FFCC0000"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <color rgb="FFCC0000"/>
+        <sz val="12"/>
+      </font>
     </dxf>
   </dxfs>
   <colors>
@@ -2076,11 +2095,11 @@
   </sheetPr>
   <dimension ref="A1:W28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R14" activeCellId="1" sqref="27:27 R14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R14" activeCellId="0" sqref="R14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="21.98"/>
@@ -3686,11 +3705,11 @@
   </sheetPr>
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H50" activeCellId="1" sqref="27:27 H50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H50" activeCellId="0" sqref="H50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
@@ -3704,22 +3723,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>107</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3733,10 +3752,10 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>9</v>
@@ -3770,10 +3789,10 @@
         <v>21</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>10</v>
@@ -3795,10 +3814,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>6</v>
@@ -3829,10 +3848,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>10</v>
@@ -3854,10 +3873,10 @@
         <v>28</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>9</v>
@@ -3868,10 +3887,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>9</v>
@@ -3882,10 +3901,10 @@
         <v>28</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>7</v>
@@ -3896,10 +3915,10 @@
         <v>28</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>5</v>
@@ -3910,10 +3929,10 @@
         <v>28</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>4</v>
@@ -3944,10 +3963,10 @@
         <v>34</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>10</v>
@@ -3981,10 +4000,10 @@
         <v>40</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>8</v>
@@ -4018,10 +4037,10 @@
         <v>46</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>9</v>
@@ -4041,10 +4060,10 @@
         <v>50</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>8</v>
@@ -4064,10 +4083,10 @@
         <v>53</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>8</v>
@@ -4089,10 +4108,10 @@
         <v>53</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>7</v>
@@ -4109,10 +4128,10 @@
         <v>57</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>5</v>
@@ -4146,10 +4165,10 @@
         <v>63</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>9</v>
@@ -4169,10 +4188,10 @@
         <v>66</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>10</v>
@@ -4192,10 +4211,10 @@
         <v>69</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>10</v>
@@ -4215,10 +4234,10 @@
         <v>72</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>9</v>
@@ -4252,10 +4271,10 @@
         <v>78</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>8</v>
@@ -4275,10 +4294,10 @@
         <v>82</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>10</v>
@@ -4298,10 +4317,10 @@
         <v>85</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>10</v>
@@ -4321,10 +4340,10 @@
         <v>88</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>10</v>
@@ -4346,10 +4365,10 @@
         <v>88</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>10</v>
@@ -4360,10 +4379,10 @@
         <v>88</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>10</v>
@@ -4374,10 +4393,10 @@
         <v>88</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>10</v>
@@ -4388,10 +4407,10 @@
         <v>88</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>10</v>
@@ -4402,10 +4421,10 @@
         <v>88</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>10</v>
@@ -4416,10 +4435,10 @@
         <v>88</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>10</v>
@@ -4430,10 +4449,10 @@
         <v>88</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>10</v>
@@ -4444,10 +4463,10 @@
         <v>88</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>10</v>
@@ -4458,10 +4477,10 @@
         <v>88</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>10</v>
@@ -4472,10 +4491,10 @@
         <v>88</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>10</v>
@@ -4486,10 +4505,10 @@
         <v>88</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>10</v>
@@ -4500,10 +4519,10 @@
         <v>88</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>9</v>
@@ -4514,10 +4533,10 @@
         <v>88</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>7</v>
@@ -4528,10 +4547,10 @@
         <v>88</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>7</v>
@@ -4548,10 +4567,10 @@
         <v>91</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>10</v>
@@ -4573,10 +4592,10 @@
         <v>91</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>3</v>
@@ -4598,7 +4617,7 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H50" s="0" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="I50" s="0" t="n">
         <f aca="false">COUNTIF(I2:I49,"&gt;0")</f>
@@ -4641,11 +4660,11 @@
   </sheetPr>
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I35" activeCellId="1" sqref="27:27 I35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I35" activeCellId="0" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
@@ -4659,22 +4678,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>107</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4688,10 +4707,10 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>7</v>
@@ -4725,10 +4744,10 @@
         <v>21</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>9</v>
@@ -4762,10 +4781,10 @@
         <v>28</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>10</v>
@@ -4787,10 +4806,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>9</v>
@@ -4801,10 +4820,10 @@
         <v>28</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>2</v>
@@ -4835,10 +4854,10 @@
         <v>34</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>10</v>
@@ -4872,10 +4891,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>10</v>
@@ -4909,10 +4928,10 @@
         <v>46</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>10</v>
@@ -4932,10 +4951,10 @@
         <v>50</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>10</v>
@@ -4957,10 +4976,10 @@
         <v>50</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>5</v>
@@ -4977,10 +4996,10 @@
         <v>53</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>8</v>
@@ -5002,10 +5021,10 @@
         <v>53</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>7</v>
@@ -5016,10 +5035,10 @@
         <v>53</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>4</v>
@@ -5030,10 +5049,10 @@
         <v>53</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>4</v>
@@ -5050,10 +5069,10 @@
         <v>57</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>7</v>
@@ -5087,10 +5106,10 @@
         <v>63</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>10</v>
@@ -5110,10 +5129,10 @@
         <v>66</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>8</v>
@@ -5133,10 +5152,10 @@
         <v>69</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>10</v>
@@ -5156,10 +5175,10 @@
         <v>72</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>10</v>
@@ -5193,10 +5212,10 @@
         <v>78</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>8</v>
@@ -5216,10 +5235,10 @@
         <v>82</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>10</v>
@@ -5239,10 +5258,10 @@
         <v>85</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>10</v>
@@ -5262,10 +5281,10 @@
         <v>88</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>10</v>
@@ -5287,10 +5306,10 @@
         <v>88</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>9</v>
@@ -5307,10 +5326,10 @@
         <v>91</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>10</v>
@@ -5332,10 +5351,10 @@
         <v>91</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>3</v>
@@ -5357,7 +5376,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H36" s="0" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="I36" s="0" t="n">
         <f aca="false">COUNTIF(I2:I35,"&gt;0")</f>
@@ -5398,11 +5417,11 @@
   </sheetPr>
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="1" sqref="27:27 A20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.38671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.41796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.88"/>
@@ -5418,19 +5437,19 @@
         <v>1</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>107</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5447,7 +5466,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>7</v>
@@ -5484,7 +5503,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>9</v>
@@ -5521,7 +5540,7 @@
         <v>27</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>10</v>
@@ -5544,7 +5563,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>9</v>
@@ -5567,7 +5586,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>10</v>
@@ -5632,7 +5651,7 @@
         <v>45</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>8</v>
@@ -5669,7 +5688,7 @@
         <v>52</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>10</v>
@@ -5720,7 +5739,7 @@
         <v>62</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>9</v>
@@ -5743,7 +5762,7 @@
         <v>65</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>10</v>
@@ -5766,7 +5785,7 @@
         <v>68</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>10</v>
@@ -5789,7 +5808,7 @@
         <v>71</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>9</v>
@@ -5826,7 +5845,7 @@
         <v>77</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>9</v>
@@ -5849,7 +5868,7 @@
         <v>81</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>10</v>
@@ -5874,7 +5893,7 @@
         <v>81</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>9</v>
@@ -5894,7 +5913,7 @@
         <v>84</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>9</v>
@@ -5919,7 +5938,7 @@
         <v>84</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>9</v>
@@ -5933,7 +5952,7 @@
         <v>84</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>8</v>
@@ -5947,7 +5966,7 @@
         <v>84</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>6</v>
@@ -5961,7 +5980,7 @@
         <v>84</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>6</v>
@@ -5975,7 +5994,7 @@
         <v>84</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>4</v>
@@ -5995,7 +6014,7 @@
         <v>87</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>10</v>
@@ -6020,7 +6039,7 @@
         <v>87</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>10</v>
@@ -6034,7 +6053,7 @@
         <v>87</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>10</v>
@@ -6048,7 +6067,7 @@
         <v>87</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>10</v>
@@ -6062,7 +6081,7 @@
         <v>87</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>9</v>
@@ -6076,7 +6095,7 @@
         <v>87</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>9</v>
@@ -6090,7 +6109,7 @@
         <v>87</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>9</v>
@@ -6104,7 +6123,7 @@
         <v>87</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>9</v>
@@ -6140,7 +6159,7 @@
     </row>
     <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H41" s="0" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="I41" s="0" t="n">
         <f aca="false">COUNTIF(I2:I40,"&gt;0")</f>
@@ -6165,11 +6184,11 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I24" activeCellId="1" sqref="27:27 I24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I24" activeCellId="0" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.38671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.41796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
@@ -6183,19 +6202,19 @@
         <v>1</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>107</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6212,7 +6231,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>10</v>
@@ -6249,7 +6268,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>10</v>
@@ -6286,7 +6305,7 @@
         <v>27</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>3</v>
@@ -6311,7 +6330,7 @@
         <v>27</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>9</v>
@@ -6325,7 +6344,7 @@
         <v>27</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>10</v>
@@ -6415,7 +6434,7 @@
         <v>45</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>10</v>
@@ -6452,7 +6471,7 @@
         <v>52</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>10</v>
@@ -6503,7 +6522,7 @@
         <v>62</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>6</v>
@@ -6540,7 +6559,7 @@
         <v>68</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>9</v>
@@ -6563,7 +6582,7 @@
         <v>71</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>9</v>
@@ -6600,7 +6619,7 @@
         <v>77</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>8</v>
@@ -6623,7 +6642,7 @@
         <v>81</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>10</v>
@@ -6646,7 +6665,7 @@
         <v>84</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>10</v>
@@ -6671,7 +6690,7 @@
         <v>84</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>10</v>
@@ -6685,7 +6704,7 @@
         <v>84</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>9</v>
@@ -6699,7 +6718,7 @@
         <v>84</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>9</v>
@@ -6719,7 +6738,7 @@
         <v>87</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>9</v>
@@ -6744,7 +6763,7 @@
         <v>87</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>9</v>
@@ -6758,7 +6777,7 @@
         <v>87</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>10</v>
@@ -6772,7 +6791,7 @@
         <v>87</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>10</v>
@@ -6808,7 +6827,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H36" s="0" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="I36" s="0" t="n">
         <f aca="false">COUNTIF(I2:I35,"&gt;0")</f>
@@ -6835,11 +6854,11 @@
   </sheetPr>
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I39" activeCellId="1" sqref="27:27 I39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I39" activeCellId="0" sqref="I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.38671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.41796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
@@ -6855,19 +6874,19 @@
         <v>1</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>107</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6884,7 +6903,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>9</v>
@@ -6921,7 +6940,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>8</v>
@@ -6958,7 +6977,7 @@
         <v>27</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>8</v>
@@ -6983,7 +7002,7 @@
         <v>27</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>8</v>
@@ -6997,7 +7016,7 @@
         <v>27</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>7</v>
@@ -7011,7 +7030,7 @@
         <v>27</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>2</v>
@@ -7101,7 +7120,7 @@
         <v>45</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>9</v>
@@ -7138,7 +7157,7 @@
         <v>52</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>9</v>
@@ -7189,7 +7208,7 @@
         <v>62</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>7</v>
@@ -7226,7 +7245,7 @@
         <v>68</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>7</v>
@@ -7249,7 +7268,7 @@
         <v>71</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>8</v>
@@ -7286,7 +7305,7 @@
         <v>77</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>8</v>
@@ -7309,7 +7328,7 @@
         <v>81</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>9</v>
@@ -7332,7 +7351,7 @@
         <v>84</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>9</v>
@@ -7357,7 +7376,7 @@
         <v>84</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>9</v>
@@ -7371,7 +7390,7 @@
         <v>84</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>9</v>
@@ -7391,7 +7410,7 @@
         <v>87</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>10</v>
@@ -7416,7 +7435,7 @@
         <v>87</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>10</v>
@@ -7430,7 +7449,7 @@
         <v>87</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>10</v>
@@ -7444,7 +7463,7 @@
         <v>87</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>9</v>
@@ -7458,7 +7477,7 @@
         <v>87</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>9</v>
@@ -7472,7 +7491,7 @@
         <v>87</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>8</v>
@@ -7486,7 +7505,7 @@
         <v>87</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>6</v>
@@ -7500,7 +7519,7 @@
         <v>87</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>6</v>
@@ -7536,7 +7555,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H40" s="0" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="I40" s="0" t="n">
         <f aca="false">COUNTIF(I2:I39,"&gt;0")</f>
@@ -7559,22 +7578,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AN27"/>
+  <dimension ref="A1:AMJ28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B4" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="27:27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.57"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="3" min="3" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="12" min="4" style="0" width="9.33"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="13" min="13" style="0" width="9.48"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="14" min="14" style="0" width="8.82"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="19" min="15" style="0" width="9.48"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="20" min="20" style="0" width="7.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="4" style="0" width="9.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="7.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="9.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7668,26 +7686,35 @@
       <c r="AD1" s="0" t="s">
         <v>107</v>
       </c>
+      <c r="AE1" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF1" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="AG1" s="2" t="n">
+        <v>45874</v>
+      </c>
       <c r="AH1" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7732,31 +7759,34 @@
         <v>7</v>
       </c>
       <c r="U2" s="3" t="n">
-        <f aca="false">ROUND(AVERAGE(M2,O2,T2),0)</f>
-        <v>8</v>
-      </c>
-      <c r="V2" s="3" t="str">
+        <f aca="false">ROUND(AVERAGE(M2,O2,T2,C2),0)</f>
+        <v>8</v>
+      </c>
+      <c r="V2" s="8" t="str">
         <f aca="false">IF(U2&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="W2" s="3" t="n">
+      <c r="W2" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB2" s="3"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB2" s="8"/>
       <c r="AC2" s="0" t="n">
         <v>8</v>
       </c>
       <c r="AD2" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(AC2,AA2,Y2,W2,U2),0)</f>
         <v>8</v>
+      </c>
+      <c r="AF2" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="AH2" s="0" t="n">
         <v>9</v>
@@ -7775,7 +7805,7 @@
       <c r="E3" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="F3" s="8" t="n">
+      <c r="F3" s="9" t="n">
         <v>45846</v>
       </c>
       <c r="G3" s="0" t="n">
@@ -7807,22 +7837,22 @@
         <f aca="false">ROUND(AVERAGE(M3,O3,T3),0)</f>
         <v>1</v>
       </c>
-      <c r="V3" s="3" t="str">
+      <c r="V3" s="8" t="str">
         <f aca="false">IF(U3&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-      <c r="W3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="3"/>
+      <c r="W3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="8"/>
       <c r="AC3" s="0" t="n">
         <v>7</v>
       </c>
@@ -7830,6 +7860,12 @@
         <f aca="false">ROUND(AVERAGE(AC3,AA3,Y3,W3,U3),0)</f>
         <v>2</v>
       </c>
+      <c r="AF3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG3" s="0" t="s">
+        <v>14</v>
+      </c>
       <c r="AH3" s="0" t="n">
         <v>1</v>
       </c>
@@ -7876,34 +7912,37 @@
         <f aca="false">ROUND(AVERAGE(M4,O4,T4),0)</f>
         <v>9</v>
       </c>
-      <c r="V4" s="3" t="str">
+      <c r="V4" s="8" t="str">
         <f aca="false">IF(U4&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="W4" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3" t="n">
+      <c r="W4" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8" t="n">
         <v>8</v>
       </c>
       <c r="AD4" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(AC4,AA4,Y4,W4,U4),0)</f>
         <v>9</v>
       </c>
+      <c r="AF4" s="0" t="s">
+        <v>14</v>
+      </c>
       <c r="AH4" s="0" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
@@ -7916,25 +7955,25 @@
       <c r="E5" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="F5" s="8" t="n">
+      <c r="F5" s="9" t="n">
         <v>45940</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="H5" s="8" t="n">
+      <c r="H5" s="9" t="n">
         <v>45848</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J5" s="8" t="n">
+      <c r="J5" s="9" t="n">
         <v>45848</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="L5" s="8" t="n">
+      <c r="L5" s="9" t="n">
         <v>45848</v>
       </c>
       <c r="M5" s="0" t="n">
@@ -7943,16 +7982,16 @@
       <c r="O5" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="P5" s="8" t="n">
+      <c r="P5" s="9" t="n">
         <v>45848</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="R5" s="8" t="n">
+      <c r="R5" s="9" t="n">
         <v>45848</v>
       </c>
-      <c r="S5" s="9" t="n">
+      <c r="S5" s="10" t="n">
         <v>15</v>
       </c>
       <c r="T5" s="0" t="n">
@@ -7963,176 +8002,190 @@
         <f aca="false">ROUND(AVERAGE(M5,O5,T5),0)</f>
         <v>8</v>
       </c>
-      <c r="V5" s="3" t="str">
+      <c r="V5" s="8" t="str">
         <f aca="false">IF(U5&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="W5" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="X5" s="8" t="n">
+      <c r="W5" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="X5" s="9" t="n">
         <v>45848</v>
       </c>
-      <c r="Y5" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z5" s="8" t="n">
+      <c r="Y5" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z5" s="9" t="n">
         <v>45848</v>
       </c>
-      <c r="AA5" s="10" t="n">
+      <c r="AA5" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="AB5" s="11" t="n">
+      <c r="AB5" s="12" t="n">
         <v>45848</v>
       </c>
-      <c r="AC5" s="3" t="n">
+      <c r="AC5" s="8" t="n">
         <v>3</v>
       </c>
       <c r="AD5" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(AC5,AA5,Y5,W5,U5),0)</f>
         <v>7</v>
       </c>
+      <c r="AF5" s="0" t="s">
+        <v>14</v>
+      </c>
       <c r="AH5" s="0" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="6" s="12" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="n">
+    <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="12" t="n">
-        <v>10</v>
-      </c>
-      <c r="M6" s="12" t="n">
-        <v>10</v>
-      </c>
-      <c r="O6" s="12" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="12" t="n">
-        <v>9</v>
-      </c>
-      <c r="S6" s="12" t="n">
+      <c r="C6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="S6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="T6" s="12" t="n">
+      <c r="T6" s="0" t="n">
         <f aca="false">Q6+S6/2</f>
         <v>9</v>
       </c>
-      <c r="U6" s="14" t="n">
+      <c r="U6" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(M6,O6,T6),0)</f>
         <v>10</v>
       </c>
-      <c r="V6" s="14" t="str">
+      <c r="V6" s="8" t="str">
         <f aca="false">IF(U6&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="W6" s="14" t="n">
-        <v>10</v>
-      </c>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14" t="n">
+      <c r="W6" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="AB6" s="14"/>
-      <c r="AC6" s="14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD6" s="14" t="n">
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD6" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(AC6,AA6,Y6,W6,U6),0)</f>
         <v>9</v>
       </c>
-      <c r="AH6" s="12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" s="15" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="n">
+      <c r="AF6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="13" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" s="15" t="n">
+      <c r="C7" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="T7" s="15" t="n">
+      <c r="T7" s="13" t="n">
         <f aca="false">Q7+S7/2</f>
         <v>1</v>
       </c>
-      <c r="U7" s="17" t="n">
-        <f aca="false">ROUND(AVERAGE(M7,O7,T7),0)</f>
-        <v>1</v>
-      </c>
-      <c r="V7" s="17" t="str">
+      <c r="U7" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C7,E7,G7,I7,K7,M7,O7,T7),0)</f>
+        <v>1</v>
+      </c>
+      <c r="V7" s="15" t="str">
         <f aca="false">IF(U7&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-      <c r="W7" s="17" t="n">
-        <v>9</v>
-      </c>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="17" t="n">
+      <c r="W7" s="15" t="n">
+        <v>9</v>
+      </c>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="AD7" s="17" t="n">
+      <c r="AD7" s="16" t="n">
         <f aca="false">ROUND(AVERAGE(AC7,AA7,Y7,W7,U7),0)</f>
         <v>2</v>
       </c>
-      <c r="AH7" s="15" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE7" s="0"/>
+      <c r="AF7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH7" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AMJ7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -8179,38 +8232,41 @@
         <f aca="false">ROUND(AVERAGE(M8,O8,T8),0)</f>
         <v>9</v>
       </c>
-      <c r="V8" s="3" t="str">
+      <c r="V8" s="8" t="str">
         <f aca="false">IF(U8&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="W8" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z8" s="8" t="n">
+      <c r="W8" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z8" s="9" t="n">
         <v>45849</v>
       </c>
-      <c r="AA8" s="9" t="n">
+      <c r="AA8" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="AB8" s="8" t="n">
+      <c r="AB8" s="9" t="n">
         <v>45849</v>
       </c>
-      <c r="AC8" s="3" t="n">
+      <c r="AC8" s="8" t="n">
         <v>7</v>
       </c>
       <c r="AD8" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(AC8,AA8,Y8,W8,U8),0)</f>
         <v>8</v>
       </c>
+      <c r="AF8" s="0" t="s">
+        <v>14</v>
+      </c>
       <c r="AH8" s="0" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
@@ -8223,25 +8279,25 @@
       <c r="E9" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="F9" s="8" t="n">
+      <c r="F9" s="9" t="n">
         <v>45846</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="H9" s="8" t="n">
+      <c r="H9" s="9" t="n">
         <v>45846</v>
       </c>
       <c r="I9" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="J9" s="8" t="n">
+      <c r="J9" s="9" t="n">
         <v>45846</v>
       </c>
       <c r="K9" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="L9" s="8" t="n">
+      <c r="L9" s="9" t="n">
         <v>45848</v>
       </c>
       <c r="M9" s="0" t="n">
@@ -8250,13 +8306,13 @@
       <c r="O9" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="P9" s="8" t="n">
+      <c r="P9" s="9" t="n">
         <v>45848</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="R9" s="8" t="n">
+      <c r="R9" s="9" t="n">
         <v>45848</v>
       </c>
       <c r="S9" s="0" t="n">
@@ -8270,35 +8326,38 @@
         <f aca="false">ROUND(AVERAGE(M9,O9,T9),0)</f>
         <v>6</v>
       </c>
-      <c r="V9" s="3" t="str">
+      <c r="V9" s="8" t="str">
         <f aca="false">IF(U9&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-      <c r="W9" s="9" t="n">
+      <c r="W9" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="X9" s="8" t="n">
+      <c r="X9" s="9" t="n">
         <v>45848</v>
       </c>
-      <c r="Y9" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z9" s="8" t="n">
+      <c r="Y9" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z9" s="9" t="n">
         <v>45848</v>
       </c>
-      <c r="AA9" s="9" t="n">
+      <c r="AA9" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="AB9" s="8" t="n">
+      <c r="AB9" s="9" t="n">
         <v>45848</v>
       </c>
-      <c r="AC9" s="3" t="n">
+      <c r="AC9" s="8" t="n">
         <v>8</v>
       </c>
       <c r="AD9" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(AC9,AA9,Y9,W9,U9),0)</f>
         <v>7</v>
       </c>
+      <c r="AF9" s="0" t="s">
+        <v>14</v>
+      </c>
       <c r="AH9" s="0" t="n">
         <v>1</v>
       </c>
@@ -8345,35 +8404,38 @@
         <f aca="false">ROUND(AVERAGE(M10,O10,T10),0)</f>
         <v>11</v>
       </c>
-      <c r="V10" s="3" t="str">
+      <c r="V10" s="8" t="str">
         <f aca="false">IF(U10&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="W10" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="X10" s="8" t="n">
+      <c r="W10" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="X10" s="9" t="n">
         <v>45848</v>
       </c>
-      <c r="Y10" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z10" s="8" t="n">
+      <c r="Y10" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z10" s="9" t="n">
         <v>45849</v>
       </c>
-      <c r="AA10" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB10" s="8" t="n">
+      <c r="AA10" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB10" s="9" t="n">
         <v>45848</v>
       </c>
-      <c r="AC10" s="3" t="n">
+      <c r="AC10" s="8" t="n">
         <v>10</v>
       </c>
       <c r="AD10" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(AC10,AA10,Y10,W10,U10),0)</f>
         <v>9</v>
       </c>
+      <c r="AF10" s="0" t="s">
+        <v>14</v>
+      </c>
       <c r="AH10" s="0" t="n">
         <v>10</v>
       </c>
@@ -8403,13 +8465,13 @@
       <c r="C11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E11" s="15" t="n">
+      <c r="E11" s="13" t="n">
         <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>45783</v>
       </c>
-      <c r="G11" s="15" t="n">
+      <c r="G11" s="13" t="n">
         <v>6</v>
       </c>
       <c r="H11" s="2" t="n">
@@ -8456,33 +8518,39 @@
         <f aca="false">ROUND(AVERAGE(M11,O11,T11),0)</f>
         <v>8</v>
       </c>
-      <c r="V11" s="3" t="str">
+      <c r="V11" s="8" t="str">
         <f aca="false">IF(U11&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="W11" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="X11" s="8" t="n">
+      <c r="W11" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="X11" s="9" t="n">
         <v>45848</v>
       </c>
-      <c r="Y11" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z11" s="8" t="n">
+      <c r="Y11" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z11" s="9" t="n">
         <v>45848</v>
       </c>
-      <c r="AA11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3" t="n">
+      <c r="AA11" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8" t="n">
         <v>7</v>
       </c>
       <c r="AD11" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(AC11,AA11,Y11,W11,U11),0)</f>
         <v>6</v>
       </c>
+      <c r="AF11" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG11" s="0" t="s">
+        <v>14</v>
+      </c>
       <c r="AH11" s="0" t="n">
         <v>1</v>
       </c>
@@ -8529,59 +8597,62 @@
         <f aca="false">ROUND(AVERAGE(M12,O12,T12),0)</f>
         <v>10</v>
       </c>
-      <c r="V12" s="3" t="str">
+      <c r="V12" s="8" t="str">
         <f aca="false">IF(U12&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="W12" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3" t="n">
+      <c r="W12" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8" t="n">
         <v>7</v>
       </c>
       <c r="AD12" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(AC12,AA12,Y12,W12,U12),0)</f>
         <v>9</v>
       </c>
+      <c r="AF12" s="0" t="s">
+        <v>14</v>
+      </c>
       <c r="AH12" s="0" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="15" t="n">
+      <c r="C13" s="13" t="n">
         <v>8</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>45780</v>
       </c>
-      <c r="E13" s="15" t="n">
+      <c r="E13" s="13" t="n">
         <v>8</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>45780</v>
       </c>
-      <c r="G13" s="15" t="n">
+      <c r="G13" s="13" t="n">
         <v>9</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>45780</v>
       </c>
-      <c r="I13" s="15" t="n">
+      <c r="I13" s="13" t="n">
         <v>5</v>
       </c>
       <c r="J13" s="2" t="n">
@@ -8610,34 +8681,37 @@
         <f aca="false">ROUND(AVERAGE(M13,O13,T13),0)</f>
         <v>9</v>
       </c>
-      <c r="V13" s="3" t="str">
+      <c r="V13" s="8" t="str">
         <f aca="false">IF(U13&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="W13" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="X13" s="8" t="n">
+      <c r="W13" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="X13" s="9" t="n">
         <v>45848</v>
       </c>
-      <c r="Y13" s="9" t="n">
+      <c r="Y13" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="Z13" s="8" t="n">
+      <c r="Z13" s="9" t="n">
         <v>45848</v>
       </c>
-      <c r="AA13" s="9" t="n">
+      <c r="AA13" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="AB13" s="8" t="n">
+      <c r="AB13" s="9" t="n">
         <v>45848</v>
       </c>
-      <c r="AC13" s="3" t="n">
+      <c r="AC13" s="8" t="n">
         <v>7</v>
       </c>
       <c r="AD13" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(AC13,AA13,Y13,W13,U13),0)</f>
         <v>8</v>
+      </c>
+      <c r="AF13" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="AH13" s="0" t="n">
         <v>10</v>
@@ -8685,34 +8759,37 @@
         <f aca="false">ROUND(AVERAGE(M14,O14,T14),0)</f>
         <v>9</v>
       </c>
-      <c r="V14" s="3" t="str">
+      <c r="V14" s="8" t="str">
         <f aca="false">IF(U14&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="W14" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="9" t="n">
+      <c r="W14" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="10" t="n">
         <v>10</v>
       </c>
       <c r="AD14" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(AC14,AA14,Y14,W14,U14),0)</f>
         <v>10</v>
       </c>
+      <c r="AF14" s="0" t="s">
+        <v>14</v>
+      </c>
       <c r="AH14" s="0" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>13</v>
       </c>
@@ -8753,35 +8830,38 @@
         <f aca="false">ROUND(AVERAGE(M15,O15,T15),0)</f>
         <v>8</v>
       </c>
-      <c r="V15" s="3" t="str">
+      <c r="V15" s="8" t="str">
         <f aca="false">IF(U15&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="W15" s="18" t="n">
+      <c r="W15" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="X15" s="8" t="n">
+      <c r="X15" s="9" t="n">
         <v>45848</v>
       </c>
-      <c r="Y15" s="9" t="n">
+      <c r="Y15" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="Z15" s="8" t="n">
+      <c r="Z15" s="9" t="n">
         <v>45848</v>
       </c>
-      <c r="AA15" s="9" t="n">
+      <c r="AA15" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="AB15" s="8" t="n">
+      <c r="AB15" s="9" t="n">
         <v>45848</v>
       </c>
-      <c r="AC15" s="3" t="n">
+      <c r="AC15" s="8" t="n">
         <v>8</v>
       </c>
       <c r="AD15" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(AC15,AA15,Y15,W15,U15),0)</f>
         <v>7</v>
       </c>
+      <c r="AF15" s="0" t="s">
+        <v>14</v>
+      </c>
       <c r="AH15" s="0" t="n">
         <v>1</v>
       </c>
@@ -8793,46 +8873,52 @@
       <c r="B16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="0" t="n">
-        <v>1</v>
+      <c r="C16" s="18" t="n">
+        <v>7</v>
+      </c>
+      <c r="D16" s="19" t="n">
+        <v>45881</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="F16" s="8" t="n">
+      <c r="F16" s="9" t="n">
         <v>45846</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="H16" s="8" t="n">
+      <c r="H16" s="9" t="n">
         <v>45846</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="J16" s="8" t="n">
+      <c r="J16" s="9" t="n">
         <v>45846</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="L16" s="8" t="n">
+      <c r="L16" s="9" t="n">
         <v>45848</v>
       </c>
-      <c r="M16" s="0" t="n">
-        <v>1</v>
+      <c r="M16" s="18" t="n">
+        <v>6</v>
+      </c>
+      <c r="N16" s="19" t="n">
+        <v>45881</v>
       </c>
       <c r="O16" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="P16" s="8" t="n">
+      <c r="P16" s="9" t="n">
         <v>45848</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="R16" s="8" t="n">
+      <c r="R16" s="9" t="n">
         <v>45848</v>
       </c>
       <c r="S16" s="0" t="n">
@@ -8843,35 +8929,46 @@
         <v>6</v>
       </c>
       <c r="U16" s="3" t="n">
-        <f aca="false">ROUND(AVERAGE(M16,O16,T16),0)</f>
-        <v>5</v>
-      </c>
-      <c r="V16" s="3" t="str">
+        <f aca="false">ROUND(AVERAGE(C16,E16,G16,I16,K16,M16,O16,T16),0)</f>
+        <v>7</v>
+      </c>
+      <c r="V16" s="8" t="str">
         <f aca="false">IF(U16&lt;7,"TEP","TEA")</f>
-        <v>TEP</v>
-      </c>
-      <c r="W16" s="9" t="n">
+        <v>TEA</v>
+      </c>
+      <c r="W16" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="X16" s="8" t="n">
+      <c r="X16" s="9" t="n">
         <v>45848</v>
       </c>
-      <c r="Y16" s="9" t="n">
+      <c r="Y16" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="Z16" s="8" t="n">
+      <c r="Z16" s="9" t="n">
         <v>45848</v>
       </c>
-      <c r="AA16" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3" t="n">
+      <c r="AA16" s="20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB16" s="19" t="n">
+        <v>45848</v>
+      </c>
+      <c r="AC16" s="8" t="n">
         <v>5</v>
       </c>
       <c r="AD16" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(AC16,AA16,Y16,W16,U16),0)</f>
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="AE16" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF16" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG16" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="AH16" s="0" t="n">
         <v>1</v>
@@ -8906,7 +9003,7 @@
         <v>9</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="0" t="n">
         <v>10</v>
@@ -8922,34 +9019,37 @@
         <f aca="false">ROUND(AVERAGE(M17,O17,T17),0)</f>
         <v>10</v>
       </c>
-      <c r="V17" s="3" t="str">
+      <c r="V17" s="8" t="str">
         <f aca="false">IF(U17&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="W17" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3" t="n">
+      <c r="W17" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3" t="n">
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8" t="n">
         <v>8</v>
       </c>
       <c r="AD17" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(AC17,AA17,Y17,W17,U17),0)</f>
         <v>9</v>
       </c>
+      <c r="AF17" s="0" t="s">
+        <v>14</v>
+      </c>
       <c r="AH17" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>16</v>
       </c>
@@ -8991,32 +9091,35 @@
         <f aca="false">ROUND(AVERAGE(M18,O18,T18),0)</f>
         <v>9</v>
       </c>
-      <c r="V18" s="3" t="str">
+      <c r="V18" s="8" t="str">
         <f aca="false">IF(U18&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="W18" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="19" t="n">
+      <c r="W18" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="21" t="n">
         <v>9</v>
       </c>
       <c r="Z18" s="2" t="n">
         <v>45848</v>
       </c>
-      <c r="AA18" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB18" s="8" t="n">
+      <c r="AA18" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB18" s="9" t="n">
         <v>45848</v>
       </c>
-      <c r="AC18" s="3" t="n">
+      <c r="AC18" s="8" t="n">
         <v>5</v>
       </c>
       <c r="AD18" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(AC18,AA18,Y18,W18,U18),0)</f>
         <v>8</v>
+      </c>
+      <c r="AF18" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9061,28 +9164,31 @@
         <f aca="false">ROUND(AVERAGE(M19,O19,T19),0)</f>
         <v>10</v>
       </c>
-      <c r="V19" s="3" t="str">
+      <c r="V19" s="8" t="str">
         <f aca="false">IF(U19&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="W19" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3" t="n">
+      <c r="W19" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3" t="n">
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8" t="n">
         <v>6</v>
       </c>
       <c r="AD19" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(AC19,AA19,Y19,W19,U19),0)</f>
         <v>8</v>
+      </c>
+      <c r="AF19" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9127,28 +9233,31 @@
         <f aca="false">ROUND(AVERAGE(M20,O20,T20),0)</f>
         <v>10</v>
       </c>
-      <c r="V20" s="3" t="str">
+      <c r="V20" s="8" t="str">
         <f aca="false">IF(U20&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="W20" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3" t="n">
+      <c r="W20" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8" t="n">
         <v>10</v>
       </c>
       <c r="AD20" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(AC20,AA20,Y20,W20,U20),0)</f>
         <v>9</v>
+      </c>
+      <c r="AF20" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9190,34 +9299,40 @@
         <v>2</v>
       </c>
       <c r="U21" s="3" t="n">
-        <f aca="false">ROUND(AVERAGE(M21,O21,T21),0)</f>
-        <v>1</v>
-      </c>
-      <c r="V21" s="3" t="str">
+        <f aca="false">ROUND(AVERAGE(C21,E21,G21,I21,K21,M21,O21,T21),0)</f>
+        <v>2</v>
+      </c>
+      <c r="V21" s="8" t="str">
         <f aca="false">IF(U21&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-      <c r="W21" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3" t="n">
+      <c r="W21" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8" t="n">
         <v>6</v>
       </c>
       <c r="AD21" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(AC21,AA21,Y21,W21,U21),0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="16.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AF21" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG21" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>20</v>
       </c>
@@ -9262,28 +9377,31 @@
         <f aca="false">ROUND(AVERAGE(M22,O22,T22),0)</f>
         <v>8</v>
       </c>
-      <c r="V22" s="3" t="str">
+      <c r="V22" s="8" t="str">
         <f aca="false">IF(U22&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="W22" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="9" t="n">
+      <c r="W22" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="10" t="n">
         <v>8</v>
       </c>
       <c r="AD22" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(AC22,AA22,Y22,W22,U22),0)</f>
         <v>8</v>
+      </c>
+      <c r="AF22" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9328,28 +9446,31 @@
         <f aca="false">ROUND(AVERAGE(M23,O23,T23),0)</f>
         <v>11</v>
       </c>
-      <c r="V23" s="3" t="str">
+      <c r="V23" s="8" t="str">
         <f aca="false">IF(U23&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="W23" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3" t="n">
+      <c r="W23" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8" t="n">
         <v>8</v>
       </c>
       <c r="AD23" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(AC23,AA23,Y23,W23,U23),0)</f>
         <v>10</v>
+      </c>
+      <c r="AF23" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="AH23" s="0" t="n">
         <v>10</v>
@@ -9412,27 +9533,30 @@
         <f aca="false">ROUND(AVERAGE(M24,O24,T24),0)</f>
         <v>12</v>
       </c>
-      <c r="V24" s="3" t="str">
+      <c r="V24" s="8" t="str">
         <f aca="false">IF(U24&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
       <c r="W24" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="Y24" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3" t="n">
+      <c r="Y24" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8" t="n">
         <v>10</v>
       </c>
       <c r="AD24" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(AC24,AA24,Y24,W24,U24),0)</f>
         <v>10</v>
+      </c>
+      <c r="AF24" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9477,7 +9601,7 @@
         <f aca="false">ROUND(AVERAGE(M25,O25,T25),0)</f>
         <v>11</v>
       </c>
-      <c r="V25" s="3" t="str">
+      <c r="V25" s="8" t="str">
         <f aca="false">IF(U25&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -9490,13 +9614,16 @@
       <c r="AA25" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="AC25" s="3" t="n">
+      <c r="AC25" s="8" t="n">
         <v>8</v>
       </c>
       <c r="AD25" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(AC25,AA25,Y25,W25,U25),0)</f>
         <v>10</v>
       </c>
+      <c r="AF25" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="AH25" s="0" t="n">
         <v>10</v>
       </c>
@@ -9516,7 +9643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="16.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>24</v>
       </c>
@@ -9558,34 +9685,37 @@
         <f aca="false">ROUND(AVERAGE(M26,O26,T26),0)</f>
         <v>9</v>
       </c>
-      <c r="V26" s="3" t="str">
+      <c r="V26" s="8" t="str">
         <f aca="false">IF(U26&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="W26" s="9" t="n">
+      <c r="W26" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="X26" s="8" t="n">
+      <c r="X26" s="9" t="n">
         <v>45848</v>
       </c>
-      <c r="Y26" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z26" s="8" t="n">
+      <c r="Y26" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z26" s="9" t="n">
         <v>45848</v>
       </c>
-      <c r="AA26" s="9" t="n">
+      <c r="AA26" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="AB26" s="8" t="n">
+      <c r="AB26" s="9" t="n">
         <v>45848</v>
       </c>
-      <c r="AC26" s="3" t="n">
+      <c r="AC26" s="8" t="n">
         <v>10</v>
       </c>
       <c r="AD26" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(AC26,AA26,Y26,W26,U26),0)</f>
         <v>8</v>
+      </c>
+      <c r="AF26" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="AH26" s="0" t="n">
         <v>7</v>
@@ -9613,37 +9743,37 @@
       <c r="B27" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="20" t="n">
+      <c r="C27" s="18" t="n">
         <v>8</v>
       </c>
       <c r="E27" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="F27" s="8" t="n">
+      <c r="F27" s="9" t="n">
         <v>45852</v>
       </c>
       <c r="G27" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="H27" s="8" t="n">
+      <c r="H27" s="9" t="n">
         <v>45852</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K27" s="20" t="n">
+      <c r="K27" s="18" t="n">
         <v>6</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="N27" s="8" t="n">
+      <c r="N27" s="9" t="n">
         <v>45852</v>
       </c>
-      <c r="O27" s="20" t="n">
+      <c r="O27" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="Q27" s="20" t="n">
+      <c r="Q27" s="18" t="n">
         <v>7</v>
       </c>
       <c r="S27" s="0" t="n">
@@ -9657,17 +9787,17 @@
         <f aca="false">ROUND(AVERAGE(M27,O27,T27),0)</f>
         <v>8</v>
       </c>
-      <c r="V27" s="3" t="str">
+      <c r="V27" s="8" t="str">
         <f aca="false">IF(U27&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="W27" s="20" t="n">
+      <c r="W27" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="Y27" s="20" t="n">
+      <c r="Y27" s="18" t="n">
         <v>7</v>
       </c>
-      <c r="AA27" s="20" t="n">
+      <c r="AA27" s="18" t="n">
         <v>7</v>
       </c>
       <c r="AC27" s="0" t="n">
@@ -9676,6 +9806,15 @@
       <c r="AD27" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(AC27,AA27,Y27,W27,U27),0)</f>
         <v>7</v>
+      </c>
+      <c r="AF27" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AF28" s="0" t="n">
+        <f aca="false">COUNTIF(AF2:AF27,"P")</f>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -9694,7 +9833,11 @@
       <formula>6</formula>
     </cfRule>
     <cfRule type="cellIs" priority="5" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>7</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>4</formula>
+      <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -9714,11 +9857,11 @@
   </sheetPr>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="27:27 F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.11"/>
@@ -10160,11 +10303,11 @@
   </sheetPr>
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="27:27 G1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.98"/>
@@ -10179,22 +10322,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>107</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10208,10 +10351,10 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>10</v>
@@ -10233,10 +10376,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>5</v>
@@ -10253,10 +10396,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>1</v>
@@ -10276,10 +10419,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>6</v>
@@ -10299,10 +10442,10 @@
         <v>24</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>7</v>
@@ -10324,10 +10467,10 @@
         <v>24</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>6</v>
@@ -10338,10 +10481,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>6</v>
@@ -10352,10 +10495,10 @@
         <v>24</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>5</v>
@@ -10366,10 +10509,10 @@
         <v>24</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>4</v>
@@ -10414,10 +10557,10 @@
         <v>34</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>8</v>
@@ -10437,10 +10580,10 @@
         <v>37</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>10</v>
@@ -10462,10 +10605,10 @@
         <v>37</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>8</v>
@@ -10482,10 +10625,10 @@
         <v>40</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>10</v>
@@ -10505,10 +10648,10 @@
         <v>43</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>10</v>
@@ -10528,10 +10671,10 @@
         <v>46</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>0</v>
@@ -10565,10 +10708,10 @@
         <v>53</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>10</v>
@@ -10588,10 +10731,10 @@
         <v>57</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>8</v>
@@ -10625,10 +10768,10 @@
         <v>63</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>9</v>
@@ -10650,10 +10793,10 @@
         <v>63</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>5</v>
@@ -10670,10 +10813,10 @@
         <v>66</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>7</v>
@@ -10693,10 +10836,10 @@
         <v>69</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>7</v>
@@ -10716,10 +10859,10 @@
         <v>72</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>10</v>
@@ -10739,10 +10882,10 @@
         <v>75</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>10</v>
@@ -10764,10 +10907,10 @@
         <v>75</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>8</v>
@@ -10778,10 +10921,10 @@
         <v>75</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>8</v>
@@ -10792,10 +10935,10 @@
         <v>75</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>8</v>
@@ -10806,10 +10949,10 @@
         <v>75</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>5</v>
@@ -10820,10 +10963,10 @@
         <v>75</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>1</v>
@@ -10840,10 +10983,10 @@
         <v>78</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>9</v>
@@ -10865,10 +11008,10 @@
         <v>78</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>6</v>
@@ -10885,10 +11028,10 @@
         <v>82</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>10</v>
@@ -10910,10 +11053,10 @@
         <v>82</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>9</v>
@@ -10924,10 +11067,10 @@
         <v>82</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>6</v>
@@ -10944,10 +11087,10 @@
         <v>85</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>10</v>
@@ -10967,10 +11110,10 @@
         <v>88</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>10</v>
@@ -10992,10 +11135,10 @@
         <v>88</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>10</v>
@@ -11006,10 +11149,10 @@
         <v>88</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>9</v>
@@ -11020,10 +11163,10 @@
         <v>88</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>9</v>
@@ -11040,10 +11183,10 @@
         <v>91</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>9</v>
@@ -11065,10 +11208,10 @@
         <v>91</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>8</v>
@@ -11079,10 +11222,10 @@
         <v>91</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>7</v>
@@ -11093,10 +11236,10 @@
         <v>91</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>3</v>
@@ -11152,11 +11295,11 @@
   </sheetPr>
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="27:27 G1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
@@ -11168,22 +11311,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>107</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11197,10 +11340,10 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>10</v>
@@ -11222,10 +11365,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>9</v>
@@ -11236,10 +11379,10 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>6</v>
@@ -11270,10 +11413,10 @@
         <v>21</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>8</v>
@@ -11295,10 +11438,10 @@
         <v>21</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>7</v>
@@ -11309,10 +11452,10 @@
         <v>21</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>6</v>
@@ -11371,10 +11514,10 @@
         <v>34</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>8</v>
@@ -11408,10 +11551,10 @@
         <v>40</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>9</v>
@@ -11445,10 +11588,10 @@
         <v>46</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>7</v>
@@ -11482,10 +11625,10 @@
         <v>53</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>10</v>
@@ -11505,10 +11648,10 @@
         <v>57</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>9</v>
@@ -11542,10 +11685,10 @@
         <v>63</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>7</v>
@@ -11565,10 +11708,10 @@
         <v>66</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>9</v>
@@ -11590,10 +11733,10 @@
         <v>66</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>6</v>
@@ -11624,10 +11767,10 @@
         <v>72</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>9</v>
@@ -11649,10 +11792,10 @@
         <v>72</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>7</v>
@@ -11683,10 +11826,10 @@
         <v>78</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>10</v>
@@ -11706,10 +11849,10 @@
         <v>82</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>10</v>
@@ -11729,10 +11872,10 @@
         <v>85</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>10</v>
@@ -11754,10 +11897,10 @@
         <v>85</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>10</v>
@@ -11768,10 +11911,10 @@
         <v>85</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>10</v>
@@ -11782,10 +11925,10 @@
         <v>85</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>8</v>
@@ -11802,10 +11945,10 @@
         <v>88</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>10</v>
@@ -11825,10 +11968,10 @@
         <v>91</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>10</v>
@@ -11848,10 +11991,10 @@
         <v>94</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>5</v>
@@ -11893,11 +12036,11 @@
   </sheetPr>
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="1" sqref="27:27 I2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
@@ -11911,22 +12054,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>107</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11940,10 +12083,10 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>10</v>
@@ -11977,10 +12120,10 @@
         <v>21</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>10</v>
@@ -12042,10 +12185,10 @@
         <v>34</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>9</v>
@@ -12079,10 +12222,10 @@
         <v>40</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>10</v>
@@ -12116,10 +12259,10 @@
         <v>46</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>6</v>
@@ -12141,10 +12284,10 @@
         <v>46</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>10</v>
@@ -12175,10 +12318,10 @@
         <v>53</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>9</v>
@@ -12198,10 +12341,10 @@
         <v>57</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>9</v>
@@ -12235,10 +12378,10 @@
         <v>63</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>10</v>
@@ -12258,10 +12401,10 @@
         <v>66</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>9</v>
@@ -12283,10 +12426,10 @@
         <v>66</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>5</v>
@@ -12297,10 +12440,10 @@
         <v>66</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>9</v>
@@ -12331,10 +12474,10 @@
         <v>72</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>10</v>
@@ -12368,10 +12511,10 @@
         <v>78</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>10</v>
@@ -12391,10 +12534,10 @@
         <v>82</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>10</v>
@@ -12414,10 +12557,10 @@
         <v>85</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>10</v>
@@ -12437,10 +12580,10 @@
         <v>88</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>10</v>
@@ -12460,10 +12603,10 @@
         <v>91</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>10</v>
@@ -12515,11 +12658,11 @@
   </sheetPr>
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="27:27 G1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
@@ -12532,22 +12675,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>107</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12589,10 +12732,10 @@
         <v>21</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>10</v>
@@ -12682,10 +12825,10 @@
         <v>40</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>10</v>
@@ -12707,10 +12850,10 @@
         <v>40</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>8</v>
@@ -12769,10 +12912,10 @@
         <v>53</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>10</v>
@@ -12792,10 +12935,10 @@
         <v>57</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>9</v>
@@ -12829,10 +12972,10 @@
         <v>63</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>7</v>
@@ -12852,10 +12995,10 @@
         <v>66</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>9</v>
@@ -12875,10 +13018,10 @@
         <v>69</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>7</v>
@@ -12898,10 +13041,10 @@
         <v>72</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>9</v>
@@ -12923,10 +13066,10 @@
         <v>72</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>6</v>
@@ -12971,10 +13114,10 @@
         <v>82</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>10</v>
@@ -12994,10 +13137,10 @@
         <v>85</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>10</v>
@@ -13017,10 +13160,10 @@
         <v>88</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>10</v>
@@ -13040,10 +13183,10 @@
         <v>91</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>8</v>
@@ -13102,11 +13245,11 @@
   </sheetPr>
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="27:27 G1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
@@ -13120,22 +13263,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>107</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13149,10 +13292,10 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>8</v>
@@ -13186,10 +13329,10 @@
         <v>21</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>8</v>
@@ -13209,10 +13352,10 @@
         <v>24</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>6</v>
@@ -13232,10 +13375,10 @@
         <v>28</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>10</v>
@@ -13269,10 +13412,10 @@
         <v>34</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>8</v>
@@ -13306,10 +13449,10 @@
         <v>40</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>8</v>
@@ -13331,10 +13474,10 @@
         <v>40</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>7</v>
@@ -13365,10 +13508,10 @@
         <v>46</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>9</v>
@@ -13388,10 +13531,10 @@
         <v>50</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>10</v>
@@ -13411,10 +13554,10 @@
         <v>53</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>10</v>
@@ -13436,10 +13579,10 @@
         <v>53</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>9</v>
@@ -13450,10 +13593,10 @@
         <v>53</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>9</v>
@@ -13464,10 +13607,10 @@
         <v>53</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>7</v>
@@ -13478,10 +13621,10 @@
         <v>53</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>6</v>
@@ -13498,10 +13641,10 @@
         <v>57</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>9</v>
@@ -13535,10 +13678,10 @@
         <v>63</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>7</v>
@@ -13558,10 +13701,10 @@
         <v>66</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>9</v>
@@ -13581,10 +13724,10 @@
         <v>69</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>7</v>
@@ -13604,10 +13747,10 @@
         <v>72</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>10</v>
@@ -13641,10 +13784,10 @@
         <v>78</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>9</v>
@@ -13664,10 +13807,10 @@
         <v>82</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>10</v>
@@ -13689,10 +13832,10 @@
         <v>82</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>9</v>
@@ -13703,10 +13846,10 @@
         <v>82</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>6</v>
@@ -13717,10 +13860,10 @@
         <v>82</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>6</v>
@@ -13731,10 +13874,10 @@
         <v>82</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>6</v>
@@ -13745,10 +13888,10 @@
         <v>82</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>5</v>
@@ -13765,10 +13908,10 @@
         <v>85</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>10</v>
@@ -13788,10 +13931,10 @@
         <v>88</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>10</v>
@@ -13811,16 +13954,16 @@
         <v>91</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>8</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>8</v>
@@ -13835,10 +13978,10 @@
         <v>91</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>8</v>
@@ -13849,10 +13992,10 @@
         <v>91</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>5</v>
@@ -13908,11 +14051,11 @@
   </sheetPr>
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H38" activeCellId="1" sqref="27:27 H38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H38" activeCellId="0" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
@@ -13926,22 +14069,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>107</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13955,10 +14098,10 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>8</v>
@@ -13992,10 +14135,10 @@
         <v>21</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>8</v>
@@ -14017,10 +14160,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>7</v>
@@ -14037,10 +14180,10 @@
         <v>24</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>2</v>
@@ -14060,10 +14203,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>10</v>
@@ -14085,10 +14228,10 @@
         <v>28</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>9</v>
@@ -14099,10 +14242,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>7</v>
@@ -14113,10 +14256,10 @@
         <v>28</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>6</v>
@@ -14127,10 +14270,10 @@
         <v>28</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>4</v>
@@ -14161,10 +14304,10 @@
         <v>34</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>8</v>
@@ -14198,10 +14341,10 @@
         <v>40</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>10</v>
@@ -14235,10 +14378,10 @@
         <v>46</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>10</v>
@@ -14258,10 +14401,10 @@
         <v>50</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>9</v>
@@ -14283,10 +14426,10 @@
         <v>50</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>8</v>
@@ -14297,10 +14440,10 @@
         <v>50</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>3</v>
@@ -14317,10 +14460,10 @@
         <v>53</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>10</v>
@@ -14342,10 +14485,10 @@
         <v>53</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>8</v>
@@ -14356,10 +14499,10 @@
         <v>53</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>8</v>
@@ -14376,10 +14519,10 @@
         <v>57</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>9</v>
@@ -14413,10 +14556,10 @@
         <v>63</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>9</v>
@@ -14436,10 +14579,10 @@
         <v>66</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>10</v>
@@ -14461,10 +14604,10 @@
         <v>66</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>6</v>
@@ -14481,10 +14624,10 @@
         <v>69</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>8</v>
@@ -14504,10 +14647,10 @@
         <v>72</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>9</v>
@@ -14541,10 +14684,10 @@
         <v>78</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>8</v>
@@ -14564,10 +14707,10 @@
         <v>82</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>10</v>
@@ -14587,10 +14730,10 @@
         <v>85</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>9</v>
@@ -14610,10 +14753,10 @@
         <v>88</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>10</v>
@@ -14633,10 +14776,10 @@
         <v>91</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>8</v>
@@ -14661,7 +14804,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H38" s="0" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="I38" s="0" t="n">
         <f aca="false">COUNTIF(I2:I37,"&gt;0")</f>

--- a/inasistencias-6A-sistDeCtrolVirtual/Alumnos-6A-SistDeCtrolVirtual.xlsx
+++ b/inasistencias-6A-sistDeCtrolVirtual/Alumnos-6A-SistDeCtrolVirtual.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="573">
   <si>
     <t xml:space="preserve">obs</t>
   </si>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">tp-5-listar</t>
   </si>
   <si>
-    <t xml:space="preserve">tp-5js</t>
+    <t xml:space="preserve">tp-6js</t>
   </si>
   <si>
     <t xml:space="preserve">Aprobo Agosto</t>
@@ -2084,13 +2084,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y32"/>
+  <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y29" activeCellId="0" sqref="Y29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z19" activeCellId="0" sqref="Z19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="21.98"/>
@@ -2193,6 +2193,9 @@
       <c r="X2" s="2" t="n">
         <v>45902</v>
       </c>
+      <c r="Z2" s="2" t="n">
+        <v>45909</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -2257,6 +2260,12 @@
       <c r="Y3" s="4" t="n">
         <v>0.5625</v>
       </c>
+      <c r="Z3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.555555555555556</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -2318,6 +2327,9 @@
       <c r="X4" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Z4" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -2385,6 +2397,9 @@
       <c r="Y5" s="4" t="n">
         <v>0.5625</v>
       </c>
+      <c r="Z5" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -2450,6 +2465,9 @@
       <c r="X6" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Z6" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -2511,6 +2529,9 @@
       <c r="X7" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="Z7" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -2575,6 +2596,12 @@
       <c r="Y8" s="4" t="n">
         <v>0.5625</v>
       </c>
+      <c r="Z8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA8" s="4" t="n">
+        <v>0.583333333333333</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -2636,6 +2663,9 @@
       <c r="X9" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="Z9" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -2705,6 +2735,9 @@
       <c r="Y10" s="4" t="n">
         <v>0.5625</v>
       </c>
+      <c r="Z10" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -2766,6 +2799,9 @@
       <c r="X11" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="Z11" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -2827,6 +2863,9 @@
       <c r="X12" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="Z12" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
@@ -2891,6 +2930,9 @@
         <v>13</v>
       </c>
       <c r="X13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z13" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2965,6 +3007,12 @@
       <c r="X14" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Z14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA14" s="4" t="n">
+        <v>0.569444444444444</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="18.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -3035,6 +3083,9 @@
       <c r="Y15" s="4" t="n">
         <v>0.541666666666667</v>
       </c>
+      <c r="Z15" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -3096,6 +3147,9 @@
       <c r="X16" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="Z16" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
@@ -3157,6 +3211,9 @@
       <c r="X17" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="Z17" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
@@ -3224,6 +3281,9 @@
       <c r="Y18" s="4" t="n">
         <v>0.541666666666667</v>
       </c>
+      <c r="Z18" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -3288,6 +3348,12 @@
       <c r="X19" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="Z19" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA19" s="4" t="n">
+        <v>0.569444444444444</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
@@ -3357,6 +3423,9 @@
       <c r="X20" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="Z20" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
@@ -3419,6 +3488,9 @@
       <c r="X21" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="Z21" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
@@ -3491,6 +3563,9 @@
       <c r="Y22" s="4" t="n">
         <v>0.5625</v>
       </c>
+      <c r="Z22" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
@@ -3555,6 +3630,9 @@
       <c r="X23" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="Z23" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
@@ -3616,6 +3694,9 @@
       <c r="X24" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="Z24" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
@@ -3677,6 +3758,9 @@
       <c r="X25" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="Z25" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
@@ -3738,6 +3822,12 @@
       <c r="X26" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="Z26" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA26" s="4" t="n">
+        <v>0.569444444444444</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
@@ -3799,6 +3889,9 @@
       <c r="X27" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Z27" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
@@ -3866,6 +3959,9 @@
       <c r="Y28" s="4" t="n">
         <v>0.583333333333333</v>
       </c>
+      <c r="Z28" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
@@ -3907,6 +4003,10 @@
         <f aca="false">COUNTIF(X3:X28,"P")</f>
         <v>14</v>
       </c>
+      <c r="Z29" s="0" t="n">
+        <f aca="false">COUNTIF(Z3:Z28,"P")</f>
+        <v>18</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
@@ -3920,6 +4020,10 @@
         <f aca="false">COUNTIF(X3:X28,"M")</f>
         <v>2</v>
       </c>
+      <c r="Z30" s="0" t="n">
+        <f aca="false">COUNTIF(Z3:Z28,"M")</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
@@ -3933,6 +4037,10 @@
         <f aca="false">COUNTIF(X3:X28,"T")</f>
         <v>6</v>
       </c>
+      <c r="Z31" s="0" t="n">
+        <f aca="false">COUNTIF(Z3:Z28,"T")</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
@@ -3945,6 +4053,10 @@
       <c r="X32" s="0" t="n">
         <f aca="false">SUM(X29:X31)</f>
         <v>22</v>
+      </c>
+      <c r="Z32" s="0" t="n">
+        <f aca="false">SUM(Z29:Z31)</f>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3974,7 +4086,7 @@
       <selection pane="topLeft" activeCell="H50" activeCellId="0" sqref="H50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
@@ -4929,7 +5041,7 @@
       <selection pane="topLeft" activeCell="I35" activeCellId="0" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
@@ -5686,7 +5798,7 @@
       <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.88"/>
@@ -6453,7 +6565,7 @@
       <selection pane="topLeft" activeCell="I24" activeCellId="0" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
@@ -7123,7 +7235,7 @@
       <selection pane="topLeft" activeCell="I39" activeCellId="0" sqref="I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
@@ -7845,19 +7957,23 @@
   </sheetPr>
   <dimension ref="A1:AMJ28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AH1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AI4" activeCellId="0" sqref="AI4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="4" style="0" width="9.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="7.38"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="3" min="3" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="12" min="4" style="0" width="9.33"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="13" min="13" style="0" width="9.56"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="14" min="14" style="0" width="8.82"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="19" min="15" style="0" width="9.56"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="20" min="20" style="0" width="7.38"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="29" min="21" style="0" width="9.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="9.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="32.11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8056,6 +8172,24 @@
       <c r="AH2" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="AI2" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ2" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -8132,6 +8266,24 @@
         <v>14</v>
       </c>
       <c r="AH3" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8206,6 +8358,24 @@
       <c r="AH4" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="AI4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -8302,6 +8472,24 @@
       <c r="AH5" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="AI5" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ5" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK5" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL5" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM5" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AN5" s="0" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -8374,6 +8562,24 @@
       <c r="AH6" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AI6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" s="12" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="n">
@@ -8450,6 +8656,24 @@
       <c r="AH7" s="12" t="n">
         <v>1</v>
       </c>
+      <c r="AI7" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="AMJ7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8530,6 +8754,24 @@
       <c r="AH8" s="0" t="n">
         <v>7</v>
       </c>
+      <c r="AI8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -8624,6 +8866,24 @@
         <v>14</v>
       </c>
       <c r="AH9" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL9" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8817,6 +9077,24 @@
         <v>14</v>
       </c>
       <c r="AH11" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9128,7 +9406,7 @@
         <v>14</v>
       </c>
       <c r="AH15" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9236,7 +9514,7 @@
         <v>14</v>
       </c>
       <c r="AH16" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9386,6 +9664,9 @@
       <c r="AF18" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="AH18" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -9455,6 +9736,9 @@
       <c r="AF19" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="AH19" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
@@ -9524,6 +9808,9 @@
       <c r="AF20" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="AH20" s="0" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
@@ -9596,6 +9883,9 @@
       <c r="AG21" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="AH21" s="0" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
@@ -9668,6 +9958,9 @@
       <c r="AF22" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="AH22" s="0" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
@@ -9822,6 +10115,9 @@
       </c>
       <c r="AF24" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="AH24" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10126,7 +10422,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.11"/>
@@ -10572,7 +10868,7 @@
       <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.98"/>
@@ -11564,7 +11860,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
@@ -12305,7 +12601,7 @@
       <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
@@ -12927,7 +13223,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
@@ -13514,7 +13810,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
@@ -14320,7 +14616,7 @@
       <selection pane="topLeft" activeCell="H38" activeCellId="0" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
